--- a/public/Dataset/Dataset US.xlsx
+++ b/public/Dataset/Dataset US.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\UNDIP\PKL\template excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imbecile\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F1C7AE-900B-4F6E-84B4-175F0DEF1C8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09109718-12C9-4C2F-B629-41E0A156B4A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{7DB892E0-464B-4B00-9D0F-F52A699E8CE8}"/>
   </bookViews>
@@ -438,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30033CE3-F2BE-4385-9354-DFF71185792E}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,49 +512,1799 @@
         <v>1001</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="H2" s="1">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L2" s="1">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="M2" s="1">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="N2" s="1">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="O2" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="P2" s="1">
-        <v>0</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="1">
+        <v>77</v>
+      </c>
+      <c r="C3" s="1">
+        <v>94</v>
+      </c>
+      <c r="D3" s="1">
+        <v>86</v>
+      </c>
+      <c r="E3" s="1">
+        <v>79</v>
+      </c>
+      <c r="F3" s="1">
+        <v>77</v>
+      </c>
+      <c r="G3" s="1">
+        <v>83</v>
+      </c>
+      <c r="H3" s="1">
+        <v>87</v>
+      </c>
+      <c r="I3" s="1">
+        <v>97</v>
+      </c>
+      <c r="J3" s="1">
+        <v>99</v>
+      </c>
+      <c r="K3" s="1">
+        <v>98</v>
+      </c>
+      <c r="L3" s="1">
+        <v>91</v>
+      </c>
+      <c r="M3" s="1">
+        <v>94</v>
+      </c>
+      <c r="N3" s="1">
+        <v>75</v>
+      </c>
+      <c r="O3" s="1">
+        <v>84</v>
+      </c>
+      <c r="P3" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="1">
+        <v>89</v>
+      </c>
+      <c r="C4" s="1">
+        <v>96</v>
+      </c>
+      <c r="D4" s="1">
+        <v>82</v>
+      </c>
+      <c r="E4" s="1">
+        <v>85</v>
+      </c>
+      <c r="F4" s="1">
+        <v>81</v>
+      </c>
+      <c r="G4" s="1">
+        <v>69</v>
+      </c>
+      <c r="H4" s="1">
+        <v>81</v>
+      </c>
+      <c r="I4" s="1">
+        <v>51</v>
+      </c>
+      <c r="J4" s="1">
+        <v>95</v>
+      </c>
+      <c r="K4" s="1">
+        <v>90</v>
+      </c>
+      <c r="L4" s="1">
+        <v>65</v>
+      </c>
+      <c r="M4" s="1">
+        <v>95</v>
+      </c>
+      <c r="N4" s="1">
+        <v>98</v>
+      </c>
+      <c r="O4" s="1">
+        <v>78</v>
+      </c>
+      <c r="P4" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="1">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>83</v>
+      </c>
+      <c r="D5" s="1">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1">
+        <v>87</v>
+      </c>
+      <c r="F5" s="1">
+        <v>89</v>
+      </c>
+      <c r="G5" s="1">
+        <v>98</v>
+      </c>
+      <c r="H5" s="1">
+        <v>78</v>
+      </c>
+      <c r="I5" s="1">
+        <v>73</v>
+      </c>
+      <c r="J5" s="1">
+        <v>97</v>
+      </c>
+      <c r="K5" s="1">
+        <v>76</v>
+      </c>
+      <c r="L5" s="1">
+        <v>59</v>
+      </c>
+      <c r="M5" s="1">
+        <v>85</v>
+      </c>
+      <c r="N5" s="1">
+        <v>83</v>
+      </c>
+      <c r="O5" s="1">
+        <v>76</v>
+      </c>
+      <c r="P5" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="1">
+        <v>81</v>
+      </c>
+      <c r="C6" s="1">
+        <v>92</v>
+      </c>
+      <c r="D6" s="1">
+        <v>67</v>
+      </c>
+      <c r="E6" s="1">
+        <v>81</v>
+      </c>
+      <c r="F6" s="1">
+        <v>99</v>
+      </c>
+      <c r="G6" s="1">
+        <v>89</v>
+      </c>
+      <c r="H6" s="1">
+        <v>76</v>
+      </c>
+      <c r="I6" s="1">
+        <v>99</v>
+      </c>
+      <c r="J6" s="1">
+        <v>72</v>
+      </c>
+      <c r="K6" s="1">
+        <v>72</v>
+      </c>
+      <c r="L6" s="1">
+        <v>49</v>
+      </c>
+      <c r="M6" s="1">
+        <v>80</v>
+      </c>
+      <c r="N6" s="1">
+        <v>91</v>
+      </c>
+      <c r="O6" s="1">
+        <v>96</v>
+      </c>
+      <c r="P6" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1006</v>
+      </c>
+      <c r="B7" s="1">
+        <v>95</v>
+      </c>
+      <c r="C7" s="1">
+        <v>90</v>
+      </c>
+      <c r="D7" s="1">
+        <v>71</v>
+      </c>
+      <c r="E7" s="1">
+        <v>70</v>
+      </c>
+      <c r="F7" s="1">
+        <v>82</v>
+      </c>
+      <c r="G7" s="1">
+        <v>61</v>
+      </c>
+      <c r="H7" s="1">
+        <v>83</v>
+      </c>
+      <c r="I7" s="1">
+        <v>51</v>
+      </c>
+      <c r="J7" s="1">
+        <v>78</v>
+      </c>
+      <c r="K7" s="1">
+        <v>95</v>
+      </c>
+      <c r="L7" s="1">
+        <v>47</v>
+      </c>
+      <c r="M7" s="1">
+        <v>91</v>
+      </c>
+      <c r="N7" s="1">
+        <v>72</v>
+      </c>
+      <c r="O7" s="1">
+        <v>72</v>
+      </c>
+      <c r="P7" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1007</v>
+      </c>
+      <c r="B8" s="1">
+        <v>77</v>
+      </c>
+      <c r="C8" s="1">
+        <v>72</v>
+      </c>
+      <c r="D8" s="1">
+        <v>79</v>
+      </c>
+      <c r="E8" s="1">
+        <v>80</v>
+      </c>
+      <c r="F8" s="1">
+        <v>100</v>
+      </c>
+      <c r="G8" s="1">
+        <v>70</v>
+      </c>
+      <c r="H8" s="1">
+        <v>64</v>
+      </c>
+      <c r="I8" s="1">
+        <v>98</v>
+      </c>
+      <c r="J8" s="1">
+        <v>90</v>
+      </c>
+      <c r="K8" s="1">
+        <v>67</v>
+      </c>
+      <c r="L8" s="1">
+        <v>100</v>
+      </c>
+      <c r="M8" s="1">
+        <v>87</v>
+      </c>
+      <c r="N8" s="1">
+        <v>70</v>
+      </c>
+      <c r="O8" s="1">
+        <v>77</v>
+      </c>
+      <c r="P8" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1008</v>
+      </c>
+      <c r="B9" s="1">
+        <v>83</v>
+      </c>
+      <c r="C9" s="1">
+        <v>92</v>
+      </c>
+      <c r="D9" s="1">
+        <v>61</v>
+      </c>
+      <c r="E9" s="1">
+        <v>76</v>
+      </c>
+      <c r="F9" s="1">
+        <v>100</v>
+      </c>
+      <c r="G9" s="1">
+        <v>99</v>
+      </c>
+      <c r="H9" s="1">
+        <v>98</v>
+      </c>
+      <c r="I9" s="1">
+        <v>75</v>
+      </c>
+      <c r="J9" s="1">
+        <v>83</v>
+      </c>
+      <c r="K9" s="1">
+        <v>63</v>
+      </c>
+      <c r="L9" s="1">
+        <v>84</v>
+      </c>
+      <c r="M9" s="1">
+        <v>85</v>
+      </c>
+      <c r="N9" s="1">
+        <v>82</v>
+      </c>
+      <c r="O9" s="1">
+        <v>71</v>
+      </c>
+      <c r="P9" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1009</v>
+      </c>
+      <c r="B10" s="1">
+        <v>99</v>
+      </c>
+      <c r="C10" s="1">
+        <v>85</v>
+      </c>
+      <c r="D10" s="1">
+        <v>73</v>
+      </c>
+      <c r="E10" s="1">
+        <v>96</v>
+      </c>
+      <c r="F10" s="1">
+        <v>97</v>
+      </c>
+      <c r="G10" s="1">
+        <v>72</v>
+      </c>
+      <c r="H10" s="1">
+        <v>78</v>
+      </c>
+      <c r="I10" s="1">
+        <v>74</v>
+      </c>
+      <c r="J10" s="1">
+        <v>73</v>
+      </c>
+      <c r="K10" s="1">
+        <v>72</v>
+      </c>
+      <c r="L10" s="1">
+        <v>44</v>
+      </c>
+      <c r="M10" s="1">
+        <v>84</v>
+      </c>
+      <c r="N10" s="1">
+        <v>71</v>
+      </c>
+      <c r="O10" s="1">
+        <v>80</v>
+      </c>
+      <c r="P10" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1010</v>
+      </c>
+      <c r="B11" s="1">
+        <v>85</v>
+      </c>
+      <c r="C11" s="1">
+        <v>74</v>
+      </c>
+      <c r="D11" s="1">
+        <v>69</v>
+      </c>
+      <c r="E11" s="1">
+        <v>70</v>
+      </c>
+      <c r="F11" s="1">
+        <v>73</v>
+      </c>
+      <c r="G11" s="1">
+        <v>82</v>
+      </c>
+      <c r="H11" s="1">
+        <v>83</v>
+      </c>
+      <c r="I11" s="1">
+        <v>55</v>
+      </c>
+      <c r="J11" s="1">
+        <v>85</v>
+      </c>
+      <c r="K11" s="1">
+        <v>72</v>
+      </c>
+      <c r="L11" s="1">
+        <v>93</v>
+      </c>
+      <c r="M11" s="1">
+        <v>99</v>
+      </c>
+      <c r="N11" s="1">
+        <v>97</v>
+      </c>
+      <c r="O11" s="1">
+        <v>94</v>
+      </c>
+      <c r="P11" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1011</v>
+      </c>
+      <c r="B12" s="1">
+        <v>87</v>
+      </c>
+      <c r="C12" s="1">
+        <v>95</v>
+      </c>
+      <c r="D12" s="1">
+        <v>69</v>
+      </c>
+      <c r="E12" s="1">
+        <v>73</v>
+      </c>
+      <c r="F12" s="1">
+        <v>99</v>
+      </c>
+      <c r="G12" s="1">
+        <v>94</v>
+      </c>
+      <c r="H12" s="1">
+        <v>86</v>
+      </c>
+      <c r="I12" s="1">
+        <v>60</v>
+      </c>
+      <c r="J12" s="1">
+        <v>85</v>
+      </c>
+      <c r="K12" s="1">
+        <v>92</v>
+      </c>
+      <c r="L12" s="1">
+        <v>81</v>
+      </c>
+      <c r="M12" s="1">
+        <v>99</v>
+      </c>
+      <c r="N12" s="1">
+        <v>87</v>
+      </c>
+      <c r="O12" s="1">
+        <v>66</v>
+      </c>
+      <c r="P12" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1012</v>
+      </c>
+      <c r="B13" s="1">
+        <v>100</v>
+      </c>
+      <c r="C13" s="1">
+        <v>99</v>
+      </c>
+      <c r="D13" s="1">
+        <v>72</v>
+      </c>
+      <c r="E13" s="1">
+        <v>90</v>
+      </c>
+      <c r="F13" s="1">
+        <v>77</v>
+      </c>
+      <c r="G13" s="1">
+        <v>98</v>
+      </c>
+      <c r="H13" s="1">
+        <v>63</v>
+      </c>
+      <c r="I13" s="1">
+        <v>66</v>
+      </c>
+      <c r="J13" s="1">
+        <v>85</v>
+      </c>
+      <c r="K13" s="1">
+        <v>79</v>
+      </c>
+      <c r="L13" s="1">
+        <v>40</v>
+      </c>
+      <c r="M13" s="1">
+        <v>88</v>
+      </c>
+      <c r="N13" s="1">
+        <v>75</v>
+      </c>
+      <c r="O13" s="1">
+        <v>97</v>
+      </c>
+      <c r="P13" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1013</v>
+      </c>
+      <c r="B14" s="1">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1">
+        <v>81</v>
+      </c>
+      <c r="D14" s="1">
+        <v>98</v>
+      </c>
+      <c r="E14" s="1">
+        <v>87</v>
+      </c>
+      <c r="F14" s="1">
+        <v>79</v>
+      </c>
+      <c r="G14" s="1">
+        <v>65</v>
+      </c>
+      <c r="H14" s="1">
+        <v>93</v>
+      </c>
+      <c r="I14" s="1">
+        <v>91</v>
+      </c>
+      <c r="J14" s="1">
+        <v>81</v>
+      </c>
+      <c r="K14" s="1">
+        <v>88</v>
+      </c>
+      <c r="L14" s="1">
+        <v>42</v>
+      </c>
+      <c r="M14" s="1">
+        <v>100</v>
+      </c>
+      <c r="N14" s="1">
+        <v>83</v>
+      </c>
+      <c r="O14" s="1">
+        <v>68</v>
+      </c>
+      <c r="P14" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1014</v>
+      </c>
+      <c r="B15" s="1">
+        <v>82</v>
+      </c>
+      <c r="C15" s="1">
+        <v>70</v>
+      </c>
+      <c r="D15" s="1">
+        <v>75</v>
+      </c>
+      <c r="E15" s="1">
+        <v>97</v>
+      </c>
+      <c r="F15" s="1">
+        <v>92</v>
+      </c>
+      <c r="G15" s="1">
+        <v>96</v>
+      </c>
+      <c r="H15" s="1">
+        <v>94</v>
+      </c>
+      <c r="I15" s="1">
+        <v>61</v>
+      </c>
+      <c r="J15" s="1">
+        <v>99</v>
+      </c>
+      <c r="K15" s="1">
+        <v>70</v>
+      </c>
+      <c r="L15" s="1">
+        <v>98</v>
+      </c>
+      <c r="M15" s="1">
+        <v>82</v>
+      </c>
+      <c r="N15" s="1">
+        <v>100</v>
+      </c>
+      <c r="O15" s="1">
+        <v>50</v>
+      </c>
+      <c r="P15" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1015</v>
+      </c>
+      <c r="B16" s="1">
+        <v>87</v>
+      </c>
+      <c r="C16" s="1">
+        <v>93</v>
+      </c>
+      <c r="D16" s="1">
+        <v>95</v>
+      </c>
+      <c r="E16" s="1">
+        <v>89</v>
+      </c>
+      <c r="F16" s="1">
+        <v>82</v>
+      </c>
+      <c r="G16" s="1">
+        <v>89</v>
+      </c>
+      <c r="H16" s="1">
+        <v>82</v>
+      </c>
+      <c r="I16" s="1">
+        <v>74</v>
+      </c>
+      <c r="J16" s="1">
+        <v>96</v>
+      </c>
+      <c r="K16" s="1">
+        <v>76</v>
+      </c>
+      <c r="L16" s="1">
+        <v>93</v>
+      </c>
+      <c r="M16" s="1">
+        <v>97</v>
+      </c>
+      <c r="N16" s="1">
+        <v>85</v>
+      </c>
+      <c r="O16" s="1">
+        <v>59</v>
+      </c>
+      <c r="P16" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1016</v>
+      </c>
+      <c r="B17" s="1">
+        <v>80</v>
+      </c>
+      <c r="C17" s="1">
+        <v>77</v>
+      </c>
+      <c r="D17" s="1">
+        <v>83</v>
+      </c>
+      <c r="E17" s="1">
+        <v>79</v>
+      </c>
+      <c r="F17" s="1">
+        <v>87</v>
+      </c>
+      <c r="G17" s="1">
+        <v>94</v>
+      </c>
+      <c r="H17" s="1">
+        <v>66</v>
+      </c>
+      <c r="I17" s="1">
+        <v>88</v>
+      </c>
+      <c r="J17" s="1">
+        <v>98</v>
+      </c>
+      <c r="K17" s="1">
+        <v>68</v>
+      </c>
+      <c r="L17" s="1">
+        <v>57</v>
+      </c>
+      <c r="M17" s="1">
+        <v>83</v>
+      </c>
+      <c r="N17" s="1">
+        <v>74</v>
+      </c>
+      <c r="O17" s="1">
+        <v>69</v>
+      </c>
+      <c r="P17" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1017</v>
+      </c>
+      <c r="B18" s="1">
+        <v>85</v>
+      </c>
+      <c r="C18" s="1">
+        <v>85</v>
+      </c>
+      <c r="D18" s="1">
+        <v>76</v>
+      </c>
+      <c r="E18" s="1">
+        <v>94</v>
+      </c>
+      <c r="F18" s="1">
+        <v>89</v>
+      </c>
+      <c r="G18" s="1">
+        <v>71</v>
+      </c>
+      <c r="H18" s="1">
+        <v>73</v>
+      </c>
+      <c r="I18" s="1">
+        <v>55</v>
+      </c>
+      <c r="J18" s="1">
+        <v>89</v>
+      </c>
+      <c r="K18" s="1">
+        <v>88</v>
+      </c>
+      <c r="L18" s="1">
+        <v>69</v>
+      </c>
+      <c r="M18" s="1">
+        <v>81</v>
+      </c>
+      <c r="N18" s="1">
+        <v>95</v>
+      </c>
+      <c r="O18" s="1">
+        <v>77</v>
+      </c>
+      <c r="P18" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1018</v>
+      </c>
+      <c r="B19" s="1">
+        <v>100</v>
+      </c>
+      <c r="C19" s="1">
+        <v>87</v>
+      </c>
+      <c r="D19" s="1">
+        <v>95</v>
+      </c>
+      <c r="E19" s="1">
+        <v>94</v>
+      </c>
+      <c r="F19" s="1">
+        <v>87</v>
+      </c>
+      <c r="G19" s="1">
+        <v>72</v>
+      </c>
+      <c r="H19" s="1">
+        <v>67</v>
+      </c>
+      <c r="I19" s="1">
+        <v>79</v>
+      </c>
+      <c r="J19" s="1">
+        <v>89</v>
+      </c>
+      <c r="K19" s="1">
+        <v>70</v>
+      </c>
+      <c r="L19" s="1">
+        <v>67</v>
+      </c>
+      <c r="M19" s="1">
+        <v>91</v>
+      </c>
+      <c r="N19" s="1">
+        <v>83</v>
+      </c>
+      <c r="O19" s="1">
+        <v>93</v>
+      </c>
+      <c r="P19" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1019</v>
+      </c>
+      <c r="B20" s="1">
+        <v>80</v>
+      </c>
+      <c r="C20" s="1">
+        <v>81</v>
+      </c>
+      <c r="D20" s="1">
+        <v>92</v>
+      </c>
+      <c r="E20" s="1">
+        <v>99</v>
+      </c>
+      <c r="F20" s="1">
+        <v>71</v>
+      </c>
+      <c r="G20" s="1">
+        <v>66</v>
+      </c>
+      <c r="H20" s="1">
+        <v>70</v>
+      </c>
+      <c r="I20" s="1">
+        <v>55</v>
+      </c>
+      <c r="J20" s="1">
+        <v>92</v>
+      </c>
+      <c r="K20" s="1">
+        <v>94</v>
+      </c>
+      <c r="L20" s="1">
+        <v>95</v>
+      </c>
+      <c r="M20" s="1">
+        <v>100</v>
+      </c>
+      <c r="N20" s="1">
+        <v>95</v>
+      </c>
+      <c r="O20" s="1">
+        <v>78</v>
+      </c>
+      <c r="P20" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1020</v>
+      </c>
+      <c r="B21" s="1">
+        <v>91</v>
+      </c>
+      <c r="C21" s="1">
+        <v>78</v>
+      </c>
+      <c r="D21" s="1">
+        <v>78</v>
+      </c>
+      <c r="E21" s="1">
+        <v>83</v>
+      </c>
+      <c r="F21" s="1">
+        <v>71</v>
+      </c>
+      <c r="G21" s="1">
+        <v>77</v>
+      </c>
+      <c r="H21" s="1">
+        <v>66</v>
+      </c>
+      <c r="I21" s="1">
+        <v>78</v>
+      </c>
+      <c r="J21" s="1">
+        <v>89</v>
+      </c>
+      <c r="K21" s="1">
+        <v>80</v>
+      </c>
+      <c r="L21" s="1">
+        <v>84</v>
+      </c>
+      <c r="M21" s="1">
+        <v>84</v>
+      </c>
+      <c r="N21" s="1">
+        <v>75</v>
+      </c>
+      <c r="O21" s="1">
+        <v>52</v>
+      </c>
+      <c r="P21" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1021</v>
+      </c>
+      <c r="B22" s="1">
+        <v>70</v>
+      </c>
+      <c r="C22" s="1">
+        <v>71</v>
+      </c>
+      <c r="D22" s="1">
+        <v>84</v>
+      </c>
+      <c r="E22" s="1">
+        <v>74</v>
+      </c>
+      <c r="F22" s="1">
+        <v>90</v>
+      </c>
+      <c r="G22" s="1">
+        <v>86</v>
+      </c>
+      <c r="H22" s="1">
+        <v>70</v>
+      </c>
+      <c r="I22" s="1">
+        <v>93</v>
+      </c>
+      <c r="J22" s="1">
+        <v>96</v>
+      </c>
+      <c r="K22" s="1">
+        <v>75</v>
+      </c>
+      <c r="L22" s="1">
+        <v>98</v>
+      </c>
+      <c r="M22" s="1">
+        <v>97</v>
+      </c>
+      <c r="N22" s="1">
+        <v>77</v>
+      </c>
+      <c r="O22" s="1">
+        <v>69</v>
+      </c>
+      <c r="P22" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1022</v>
+      </c>
+      <c r="B23" s="1">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1">
+        <v>94</v>
+      </c>
+      <c r="D23" s="1">
+        <v>93</v>
+      </c>
+      <c r="E23" s="1">
+        <v>95</v>
+      </c>
+      <c r="F23" s="1">
+        <v>78</v>
+      </c>
+      <c r="G23" s="1">
+        <v>61</v>
+      </c>
+      <c r="H23" s="1">
+        <v>76</v>
+      </c>
+      <c r="I23" s="1">
+        <v>55</v>
+      </c>
+      <c r="J23" s="1">
+        <v>73</v>
+      </c>
+      <c r="K23" s="1">
+        <v>86</v>
+      </c>
+      <c r="L23" s="1">
+        <v>89</v>
+      </c>
+      <c r="M23" s="1">
+        <v>99</v>
+      </c>
+      <c r="N23" s="1">
+        <v>86</v>
+      </c>
+      <c r="O23" s="1">
+        <v>92</v>
+      </c>
+      <c r="P23" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1023</v>
+      </c>
+      <c r="B24" s="1">
+        <v>88</v>
+      </c>
+      <c r="C24" s="1">
+        <v>75</v>
+      </c>
+      <c r="D24" s="1">
+        <v>86</v>
+      </c>
+      <c r="E24" s="1">
+        <v>97</v>
+      </c>
+      <c r="F24" s="1">
+        <v>99</v>
+      </c>
+      <c r="G24" s="1">
+        <v>84</v>
+      </c>
+      <c r="H24" s="1">
+        <v>91</v>
+      </c>
+      <c r="I24" s="1">
+        <v>99</v>
+      </c>
+      <c r="J24" s="1">
+        <v>94</v>
+      </c>
+      <c r="K24" s="1">
+        <v>80</v>
+      </c>
+      <c r="L24" s="1">
+        <v>46</v>
+      </c>
+      <c r="M24" s="1">
+        <v>100</v>
+      </c>
+      <c r="N24" s="1">
+        <v>74</v>
+      </c>
+      <c r="O24" s="1">
+        <v>75</v>
+      </c>
+      <c r="P24" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1024</v>
+      </c>
+      <c r="B25" s="1">
+        <v>98</v>
+      </c>
+      <c r="C25" s="1">
+        <v>83</v>
+      </c>
+      <c r="D25" s="1">
+        <v>81</v>
+      </c>
+      <c r="E25" s="1">
+        <v>77</v>
+      </c>
+      <c r="F25" s="1">
+        <v>92</v>
+      </c>
+      <c r="G25" s="1">
+        <v>72</v>
+      </c>
+      <c r="H25" s="1">
+        <v>78</v>
+      </c>
+      <c r="I25" s="1">
+        <v>88</v>
+      </c>
+      <c r="J25" s="1">
+        <v>90</v>
+      </c>
+      <c r="K25" s="1">
+        <v>79</v>
+      </c>
+      <c r="L25" s="1">
+        <v>54</v>
+      </c>
+      <c r="M25" s="1">
+        <v>97</v>
+      </c>
+      <c r="N25" s="1">
+        <v>70</v>
+      </c>
+      <c r="O25" s="1">
+        <v>70</v>
+      </c>
+      <c r="P25" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1025</v>
+      </c>
+      <c r="B26" s="1">
+        <v>94</v>
+      </c>
+      <c r="C26" s="1">
+        <v>92</v>
+      </c>
+      <c r="D26" s="1">
+        <v>70</v>
+      </c>
+      <c r="E26" s="1">
+        <v>71</v>
+      </c>
+      <c r="F26" s="1">
+        <v>94</v>
+      </c>
+      <c r="G26" s="1">
+        <v>87</v>
+      </c>
+      <c r="H26" s="1">
+        <v>84</v>
+      </c>
+      <c r="I26" s="1">
+        <v>92</v>
+      </c>
+      <c r="J26" s="1">
+        <v>93</v>
+      </c>
+      <c r="K26" s="1">
+        <v>70</v>
+      </c>
+      <c r="L26" s="1">
+        <v>99</v>
+      </c>
+      <c r="M26" s="1">
+        <v>87</v>
+      </c>
+      <c r="N26" s="1">
+        <v>74</v>
+      </c>
+      <c r="O26" s="1">
+        <v>60</v>
+      </c>
+      <c r="P26" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1026</v>
+      </c>
+      <c r="B27" s="1">
+        <v>78</v>
+      </c>
+      <c r="C27" s="1">
+        <v>71</v>
+      </c>
+      <c r="D27" s="1">
+        <v>93</v>
+      </c>
+      <c r="E27" s="1">
+        <v>87</v>
+      </c>
+      <c r="F27" s="1">
+        <v>85</v>
+      </c>
+      <c r="G27" s="1">
+        <v>86</v>
+      </c>
+      <c r="H27" s="1">
+        <v>63</v>
+      </c>
+      <c r="I27" s="1">
+        <v>77</v>
+      </c>
+      <c r="J27" s="1">
+        <v>98</v>
+      </c>
+      <c r="K27" s="1">
+        <v>99</v>
+      </c>
+      <c r="L27" s="1">
+        <v>67</v>
+      </c>
+      <c r="M27" s="1">
+        <v>90</v>
+      </c>
+      <c r="N27" s="1">
+        <v>74</v>
+      </c>
+      <c r="O27" s="1">
+        <v>100</v>
+      </c>
+      <c r="P27" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1027</v>
+      </c>
+      <c r="B28" s="1">
+        <v>87</v>
+      </c>
+      <c r="C28" s="1">
+        <v>95</v>
+      </c>
+      <c r="D28" s="1">
+        <v>78</v>
+      </c>
+      <c r="E28" s="1">
+        <v>99</v>
+      </c>
+      <c r="F28" s="1">
+        <v>92</v>
+      </c>
+      <c r="G28" s="1">
+        <v>90</v>
+      </c>
+      <c r="H28" s="1">
+        <v>84</v>
+      </c>
+      <c r="I28" s="1">
+        <v>79</v>
+      </c>
+      <c r="J28" s="1">
+        <v>97</v>
+      </c>
+      <c r="K28" s="1">
+        <v>67</v>
+      </c>
+      <c r="L28" s="1">
+        <v>92</v>
+      </c>
+      <c r="M28" s="1">
+        <v>88</v>
+      </c>
+      <c r="N28" s="1">
+        <v>85</v>
+      </c>
+      <c r="O28" s="1">
+        <v>90</v>
+      </c>
+      <c r="P28" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1028</v>
+      </c>
+      <c r="B29" s="1">
+        <v>79</v>
+      </c>
+      <c r="C29" s="1">
+        <v>79</v>
+      </c>
+      <c r="D29" s="1">
+        <v>77</v>
+      </c>
+      <c r="E29" s="1">
+        <v>91</v>
+      </c>
+      <c r="F29" s="1">
+        <v>80</v>
+      </c>
+      <c r="G29" s="1">
+        <v>73</v>
+      </c>
+      <c r="H29" s="1">
+        <v>97</v>
+      </c>
+      <c r="I29" s="1">
+        <v>84</v>
+      </c>
+      <c r="J29" s="1">
+        <v>80</v>
+      </c>
+      <c r="K29" s="1">
+        <v>98</v>
+      </c>
+      <c r="L29" s="1">
+        <v>79</v>
+      </c>
+      <c r="M29" s="1">
+        <v>88</v>
+      </c>
+      <c r="N29" s="1">
+        <v>92</v>
+      </c>
+      <c r="O29" s="1">
+        <v>83</v>
+      </c>
+      <c r="P29" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1029</v>
+      </c>
+      <c r="B30" s="1">
+        <v>94</v>
+      </c>
+      <c r="C30" s="1">
+        <v>78</v>
+      </c>
+      <c r="D30" s="1">
+        <v>81</v>
+      </c>
+      <c r="E30" s="1">
+        <v>80</v>
+      </c>
+      <c r="F30" s="1">
+        <v>89</v>
+      </c>
+      <c r="G30" s="1">
+        <v>81</v>
+      </c>
+      <c r="H30" s="1">
+        <v>66</v>
+      </c>
+      <c r="I30" s="1">
+        <v>61</v>
+      </c>
+      <c r="J30" s="1">
+        <v>88</v>
+      </c>
+      <c r="K30" s="1">
+        <v>99</v>
+      </c>
+      <c r="L30" s="1">
+        <v>43</v>
+      </c>
+      <c r="M30" s="1">
+        <v>94</v>
+      </c>
+      <c r="N30" s="1">
+        <v>97</v>
+      </c>
+      <c r="O30" s="1">
+        <v>89</v>
+      </c>
+      <c r="P30" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1030</v>
+      </c>
+      <c r="B31" s="1">
+        <v>78</v>
+      </c>
+      <c r="C31" s="1">
+        <v>94</v>
+      </c>
+      <c r="D31" s="1">
+        <v>84</v>
+      </c>
+      <c r="E31" s="1">
+        <v>76</v>
+      </c>
+      <c r="F31" s="1">
+        <v>72</v>
+      </c>
+      <c r="G31" s="1">
+        <v>95</v>
+      </c>
+      <c r="H31" s="1">
+        <v>93</v>
+      </c>
+      <c r="I31" s="1">
+        <v>89</v>
+      </c>
+      <c r="J31" s="1">
+        <v>80</v>
+      </c>
+      <c r="K31" s="1">
+        <v>85</v>
+      </c>
+      <c r="L31" s="1">
+        <v>58</v>
+      </c>
+      <c r="M31" s="1">
+        <v>97</v>
+      </c>
+      <c r="N31" s="1">
+        <v>73</v>
+      </c>
+      <c r="O31" s="1">
+        <v>67</v>
+      </c>
+      <c r="P31" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1031</v>
+      </c>
+      <c r="B32" s="1">
+        <v>88</v>
+      </c>
+      <c r="C32" s="1">
+        <v>79</v>
+      </c>
+      <c r="D32" s="1">
+        <v>71</v>
+      </c>
+      <c r="E32" s="1">
+        <v>98</v>
+      </c>
+      <c r="F32" s="1">
+        <v>84</v>
+      </c>
+      <c r="G32" s="1">
+        <v>87</v>
+      </c>
+      <c r="H32" s="1">
+        <v>66</v>
+      </c>
+      <c r="I32" s="1">
+        <v>78</v>
+      </c>
+      <c r="J32" s="1">
+        <v>77</v>
+      </c>
+      <c r="K32" s="1">
+        <v>95</v>
+      </c>
+      <c r="L32" s="1">
+        <v>92</v>
+      </c>
+      <c r="M32" s="1">
+        <v>82</v>
+      </c>
+      <c r="N32" s="1">
+        <v>72</v>
+      </c>
+      <c r="O32" s="1">
+        <v>76</v>
+      </c>
+      <c r="P32" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1032</v>
+      </c>
+      <c r="B33" s="1">
+        <v>87</v>
+      </c>
+      <c r="C33" s="1">
+        <v>99</v>
+      </c>
+      <c r="D33" s="1">
+        <v>63</v>
+      </c>
+      <c r="E33" s="1">
+        <v>80</v>
+      </c>
+      <c r="F33" s="1">
+        <v>72</v>
+      </c>
+      <c r="G33" s="1">
+        <v>73</v>
+      </c>
+      <c r="H33" s="1">
+        <v>70</v>
+      </c>
+      <c r="I33" s="1">
+        <v>70</v>
+      </c>
+      <c r="J33" s="1">
+        <v>94</v>
+      </c>
+      <c r="K33" s="1">
+        <v>73</v>
+      </c>
+      <c r="L33" s="1">
+        <v>93</v>
+      </c>
+      <c r="M33" s="1">
+        <v>94</v>
+      </c>
+      <c r="N33" s="1">
+        <v>89</v>
+      </c>
+      <c r="O33" s="1">
+        <v>51</v>
+      </c>
+      <c r="P33" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1033</v>
+      </c>
+      <c r="B34" s="1">
+        <v>83</v>
+      </c>
+      <c r="C34" s="1">
+        <v>81</v>
+      </c>
+      <c r="D34" s="1">
+        <v>94</v>
+      </c>
+      <c r="E34" s="1">
+        <v>83</v>
+      </c>
+      <c r="F34" s="1">
+        <v>89</v>
+      </c>
+      <c r="G34" s="1">
+        <v>74</v>
+      </c>
+      <c r="H34" s="1">
+        <v>79</v>
+      </c>
+      <c r="I34" s="1">
+        <v>68</v>
+      </c>
+      <c r="J34" s="1">
+        <v>92</v>
+      </c>
+      <c r="K34" s="1">
+        <v>62</v>
+      </c>
+      <c r="L34" s="1">
+        <v>79</v>
+      </c>
+      <c r="M34" s="1">
+        <v>86</v>
+      </c>
+      <c r="N34" s="1">
+        <v>90</v>
+      </c>
+      <c r="O34" s="1">
+        <v>91</v>
+      </c>
+      <c r="P34" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1034</v>
+      </c>
+      <c r="B35" s="1">
+        <v>91</v>
+      </c>
+      <c r="C35" s="1">
+        <v>76</v>
+      </c>
+      <c r="D35" s="1">
+        <v>60</v>
+      </c>
+      <c r="E35" s="1">
+        <v>87</v>
+      </c>
+      <c r="F35" s="1">
+        <v>98</v>
+      </c>
+      <c r="G35" s="1">
+        <v>62</v>
+      </c>
+      <c r="H35" s="1">
+        <v>89</v>
+      </c>
+      <c r="I35" s="1">
+        <v>74</v>
+      </c>
+      <c r="J35" s="1">
+        <v>83</v>
+      </c>
+      <c r="K35" s="1">
+        <v>74</v>
+      </c>
+      <c r="L35" s="1">
+        <v>48</v>
+      </c>
+      <c r="M35" s="1">
+        <v>94</v>
+      </c>
+      <c r="N35" s="1">
+        <v>86</v>
+      </c>
+      <c r="O35" s="1">
+        <v>68</v>
+      </c>
+      <c r="P35" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1035</v>
+      </c>
+      <c r="B36" s="1">
+        <v>95</v>
+      </c>
+      <c r="C36" s="1">
+        <v>90</v>
+      </c>
+      <c r="D36" s="1">
+        <v>67</v>
+      </c>
+      <c r="E36" s="1">
+        <v>70</v>
+      </c>
+      <c r="F36" s="1">
+        <v>88</v>
+      </c>
+      <c r="G36" s="1">
+        <v>89</v>
+      </c>
+      <c r="H36" s="1">
+        <v>98</v>
+      </c>
+      <c r="I36" s="1">
+        <v>63</v>
+      </c>
+      <c r="J36" s="1">
+        <v>83</v>
+      </c>
+      <c r="K36" s="1">
+        <v>74</v>
+      </c>
+      <c r="L36" s="1">
+        <v>63</v>
+      </c>
+      <c r="M36" s="1">
+        <v>81</v>
+      </c>
+      <c r="N36" s="1">
+        <v>95</v>
+      </c>
+      <c r="O36" s="1">
+        <v>85</v>
+      </c>
+      <c r="P36" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1036</v>
+      </c>
+      <c r="B37" s="1">
+        <v>70</v>
+      </c>
+      <c r="C37" s="1">
+        <v>81</v>
+      </c>
+      <c r="D37" s="1">
+        <v>99</v>
+      </c>
+      <c r="E37" s="1">
+        <v>74</v>
+      </c>
+      <c r="F37" s="1">
+        <v>75</v>
+      </c>
+      <c r="G37" s="1">
+        <v>75</v>
+      </c>
+      <c r="H37" s="1">
+        <v>82</v>
+      </c>
+      <c r="I37" s="1">
+        <v>61</v>
+      </c>
+      <c r="J37" s="1">
+        <v>82</v>
+      </c>
+      <c r="K37" s="1">
+        <v>89</v>
+      </c>
+      <c r="L37" s="1">
+        <v>56</v>
+      </c>
+      <c r="M37" s="1">
+        <v>80</v>
+      </c>
+      <c r="N37" s="1">
+        <v>71</v>
+      </c>
+      <c r="O37" s="1">
+        <v>89</v>
+      </c>
+      <c r="P37" s="1">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/public/Dataset/Dataset US.xlsx
+++ b/public/Dataset/Dataset US.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imbecile\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\UNDIP\PKL\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09109718-12C9-4C2F-B629-41E0A156B4A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA7447B-497D-4FCE-A6F9-5A305B500624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{7DB892E0-464B-4B00-9D0F-F52A699E8CE8}"/>
   </bookViews>
@@ -441,7 +441,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P37"/>
+      <selection activeCell="A2" sqref="A2:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,1802 +509,1802 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1001</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1">
+        <v>77</v>
+      </c>
+      <c r="C2" s="1">
+        <v>96</v>
+      </c>
+      <c r="D2" s="1">
+        <v>73</v>
+      </c>
+      <c r="E2" s="1">
+        <v>94</v>
+      </c>
+      <c r="F2" s="1">
+        <v>65</v>
+      </c>
+      <c r="G2" s="1">
+        <v>87</v>
+      </c>
+      <c r="H2" s="1">
+        <v>79</v>
+      </c>
+      <c r="I2" s="1">
+        <v>70</v>
+      </c>
+      <c r="J2" s="1">
+        <v>81</v>
+      </c>
+      <c r="K2" s="1">
+        <v>89</v>
+      </c>
+      <c r="L2" s="1">
+        <v>87</v>
+      </c>
+      <c r="M2" s="1">
+        <v>83</v>
+      </c>
+      <c r="N2" s="1">
         <v>71</v>
       </c>
-      <c r="C2" s="1">
-        <v>97</v>
-      </c>
-      <c r="D2" s="1">
-        <v>89</v>
-      </c>
-      <c r="E2" s="1">
-        <v>97</v>
-      </c>
-      <c r="F2" s="1">
-        <v>77</v>
-      </c>
-      <c r="G2" s="1">
-        <v>65</v>
-      </c>
-      <c r="H2" s="1">
-        <v>73</v>
-      </c>
-      <c r="I2" s="1">
-        <v>81</v>
-      </c>
-      <c r="J2" s="1">
-        <v>83</v>
-      </c>
-      <c r="K2" s="1">
-        <v>75</v>
-      </c>
-      <c r="L2" s="1">
-        <v>57</v>
-      </c>
-      <c r="M2" s="1">
-        <v>99</v>
-      </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
+        <v>72</v>
+      </c>
+      <c r="P2" s="1">
         <v>93</v>
-      </c>
-      <c r="O2" s="1">
-        <v>64</v>
-      </c>
-      <c r="P2" s="1">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1002</v>
+        <v>102</v>
       </c>
       <c r="B3" s="1">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1">
+        <v>74</v>
+      </c>
+      <c r="E3" s="1">
+        <v>84</v>
+      </c>
+      <c r="F3" s="1">
+        <v>80</v>
+      </c>
+      <c r="G3" s="1">
+        <v>79</v>
+      </c>
+      <c r="H3" s="1">
+        <v>76</v>
+      </c>
+      <c r="I3" s="1">
         <v>86</v>
       </c>
-      <c r="E3" s="1">
-        <v>79</v>
-      </c>
-      <c r="F3" s="1">
-        <v>77</v>
-      </c>
-      <c r="G3" s="1">
-        <v>83</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="J3" s="1">
+        <v>91</v>
+      </c>
+      <c r="K3" s="1">
+        <v>86</v>
+      </c>
+      <c r="L3" s="1">
+        <v>74</v>
+      </c>
+      <c r="M3" s="1">
+        <v>70</v>
+      </c>
+      <c r="N3" s="1">
+        <v>93</v>
+      </c>
+      <c r="O3" s="1">
+        <v>71</v>
+      </c>
+      <c r="P3" s="1">
         <v>87</v>
-      </c>
-      <c r="I3" s="1">
-        <v>97</v>
-      </c>
-      <c r="J3" s="1">
-        <v>99</v>
-      </c>
-      <c r="K3" s="1">
-        <v>98</v>
-      </c>
-      <c r="L3" s="1">
-        <v>91</v>
-      </c>
-      <c r="M3" s="1">
-        <v>94</v>
-      </c>
-      <c r="N3" s="1">
-        <v>75</v>
-      </c>
-      <c r="O3" s="1">
-        <v>84</v>
-      </c>
-      <c r="P3" s="1">
-        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1003</v>
+        <v>103</v>
       </c>
       <c r="B4" s="1">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D4" s="1">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E4" s="1">
         <v>85</v>
       </c>
       <c r="F4" s="1">
+        <v>70</v>
+      </c>
+      <c r="G4" s="1">
         <v>81</v>
       </c>
-      <c r="G4" s="1">
-        <v>69</v>
-      </c>
       <c r="H4" s="1">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I4" s="1">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="J4" s="1">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="K4" s="1">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L4" s="1">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="M4" s="1">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="N4" s="1">
+        <v>78</v>
+      </c>
+      <c r="O4" s="1">
         <v>98</v>
       </c>
-      <c r="O4" s="1">
-        <v>78</v>
-      </c>
       <c r="P4" s="1">
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1004</v>
+        <v>104</v>
       </c>
       <c r="B5" s="1">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1">
+        <v>94</v>
+      </c>
+      <c r="F5" s="1">
         <v>87</v>
       </c>
-      <c r="F5" s="1">
-        <v>89</v>
-      </c>
       <c r="G5" s="1">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="H5" s="1">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I5" s="1">
+        <v>69</v>
+      </c>
+      <c r="J5" s="1">
+        <v>51</v>
+      </c>
+      <c r="K5" s="1">
+        <v>80</v>
+      </c>
+      <c r="L5" s="1">
+        <v>95</v>
+      </c>
+      <c r="M5" s="1">
         <v>73</v>
       </c>
-      <c r="J5" s="1">
-        <v>97</v>
-      </c>
-      <c r="K5" s="1">
-        <v>76</v>
-      </c>
-      <c r="L5" s="1">
-        <v>59</v>
-      </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
+        <v>88</v>
+      </c>
+      <c r="O5" s="1">
+        <v>81</v>
+      </c>
+      <c r="P5" s="1">
         <v>85</v>
-      </c>
-      <c r="N5" s="1">
-        <v>83</v>
-      </c>
-      <c r="O5" s="1">
-        <v>76</v>
-      </c>
-      <c r="P5" s="1">
-        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1005</v>
+        <v>105</v>
       </c>
       <c r="B6" s="1">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1">
+        <v>91</v>
+      </c>
+      <c r="D6" s="1">
+        <v>94</v>
+      </c>
+      <c r="E6" s="1">
+        <v>80</v>
+      </c>
+      <c r="F6" s="1">
+        <v>82</v>
+      </c>
+      <c r="G6" s="1">
+        <v>74</v>
+      </c>
+      <c r="H6" s="1">
+        <v>95</v>
+      </c>
+      <c r="I6" s="1">
+        <v>90</v>
+      </c>
+      <c r="J6" s="1">
+        <v>63</v>
+      </c>
+      <c r="K6" s="1">
         <v>92</v>
       </c>
-      <c r="D6" s="1">
-        <v>67</v>
-      </c>
-      <c r="E6" s="1">
-        <v>81</v>
-      </c>
-      <c r="F6" s="1">
-        <v>99</v>
-      </c>
-      <c r="G6" s="1">
-        <v>89</v>
-      </c>
-      <c r="H6" s="1">
-        <v>76</v>
-      </c>
-      <c r="I6" s="1">
-        <v>99</v>
-      </c>
-      <c r="J6" s="1">
-        <v>72</v>
-      </c>
-      <c r="K6" s="1">
-        <v>72</v>
-      </c>
       <c r="L6" s="1">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="M6" s="1">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="N6" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O6" s="1">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="P6" s="1">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1006</v>
+        <v>106</v>
       </c>
       <c r="B7" s="1">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1">
+        <v>98</v>
+      </c>
+      <c r="D7" s="1">
+        <v>93</v>
+      </c>
+      <c r="E7" s="1">
+        <v>96</v>
+      </c>
+      <c r="F7" s="1">
+        <v>66</v>
+      </c>
+      <c r="G7" s="1">
+        <v>74</v>
+      </c>
+      <c r="H7" s="1">
+        <v>80</v>
+      </c>
+      <c r="I7" s="1">
+        <v>68</v>
+      </c>
+      <c r="J7" s="1">
+        <v>82</v>
+      </c>
+      <c r="K7" s="1">
+        <v>98</v>
+      </c>
+      <c r="L7" s="1">
+        <v>75</v>
+      </c>
+      <c r="M7" s="1">
+        <v>78</v>
+      </c>
+      <c r="N7" s="1">
+        <v>85</v>
+      </c>
+      <c r="O7" s="1">
+        <v>97</v>
+      </c>
+      <c r="P7" s="1">
         <v>90</v>
-      </c>
-      <c r="D7" s="1">
-        <v>71</v>
-      </c>
-      <c r="E7" s="1">
-        <v>70</v>
-      </c>
-      <c r="F7" s="1">
-        <v>82</v>
-      </c>
-      <c r="G7" s="1">
-        <v>61</v>
-      </c>
-      <c r="H7" s="1">
-        <v>83</v>
-      </c>
-      <c r="I7" s="1">
-        <v>51</v>
-      </c>
-      <c r="J7" s="1">
-        <v>78</v>
-      </c>
-      <c r="K7" s="1">
-        <v>95</v>
-      </c>
-      <c r="L7" s="1">
-        <v>47</v>
-      </c>
-      <c r="M7" s="1">
-        <v>91</v>
-      </c>
-      <c r="N7" s="1">
-        <v>72</v>
-      </c>
-      <c r="O7" s="1">
-        <v>72</v>
-      </c>
-      <c r="P7" s="1">
-        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1007</v>
+        <v>107</v>
       </c>
       <c r="B8" s="1">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C8" s="1">
+        <v>96</v>
+      </c>
+      <c r="D8" s="1">
+        <v>99</v>
+      </c>
+      <c r="E8" s="1">
+        <v>85</v>
+      </c>
+      <c r="F8" s="1">
+        <v>83</v>
+      </c>
+      <c r="G8" s="1">
+        <v>71</v>
+      </c>
+      <c r="H8" s="1">
+        <v>93</v>
+      </c>
+      <c r="I8" s="1">
         <v>72</v>
       </c>
-      <c r="D8" s="1">
+      <c r="J8" s="1">
+        <v>82</v>
+      </c>
+      <c r="K8" s="1">
+        <v>95</v>
+      </c>
+      <c r="L8" s="1">
         <v>79</v>
       </c>
-      <c r="E8" s="1">
-        <v>80</v>
-      </c>
-      <c r="F8" s="1">
-        <v>100</v>
-      </c>
-      <c r="G8" s="1">
-        <v>70</v>
-      </c>
-      <c r="H8" s="1">
-        <v>64</v>
-      </c>
-      <c r="I8" s="1">
-        <v>98</v>
-      </c>
-      <c r="J8" s="1">
-        <v>90</v>
-      </c>
-      <c r="K8" s="1">
-        <v>67</v>
-      </c>
-      <c r="L8" s="1">
-        <v>100</v>
-      </c>
       <c r="M8" s="1">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N8" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O8" s="1">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="P8" s="1">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1008</v>
+        <v>108</v>
       </c>
       <c r="B9" s="1">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D9" s="1">
+        <v>79</v>
+      </c>
+      <c r="E9" s="1">
+        <v>99</v>
+      </c>
+      <c r="F9" s="1">
         <v>61</v>
       </c>
-      <c r="E9" s="1">
+      <c r="G9" s="1">
+        <v>78</v>
+      </c>
+      <c r="H9" s="1">
         <v>76</v>
       </c>
-      <c r="F9" s="1">
-        <v>100</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="I9" s="1">
+        <v>63</v>
+      </c>
+      <c r="J9" s="1">
+        <v>65</v>
+      </c>
+      <c r="K9" s="1">
+        <v>81</v>
+      </c>
+      <c r="L9" s="1">
+        <v>76</v>
+      </c>
+      <c r="M9" s="1">
         <v>99</v>
       </c>
-      <c r="H9" s="1">
-        <v>98</v>
-      </c>
-      <c r="I9" s="1">
-        <v>75</v>
-      </c>
-      <c r="J9" s="1">
-        <v>83</v>
-      </c>
-      <c r="K9" s="1">
-        <v>63</v>
-      </c>
-      <c r="L9" s="1">
-        <v>84</v>
-      </c>
-      <c r="M9" s="1">
-        <v>85</v>
-      </c>
       <c r="N9" s="1">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="O9" s="1">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="P9" s="1">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1009</v>
+        <v>109</v>
       </c>
       <c r="B10" s="1">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1">
         <v>85</v>
       </c>
       <c r="D10" s="1">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E10" s="1">
+        <v>90</v>
+      </c>
+      <c r="F10" s="1">
+        <v>72</v>
+      </c>
+      <c r="G10" s="1">
+        <v>75</v>
+      </c>
+      <c r="H10" s="1">
         <v>96</v>
       </c>
-      <c r="F10" s="1">
-        <v>97</v>
-      </c>
-      <c r="G10" s="1">
-        <v>72</v>
-      </c>
-      <c r="H10" s="1">
-        <v>78</v>
-      </c>
       <c r="I10" s="1">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J10" s="1">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="K10" s="1">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="L10" s="1">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="M10" s="1">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N10" s="1">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="O10" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P10" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1010</v>
+        <v>110</v>
       </c>
       <c r="B11" s="1">
+        <v>86</v>
+      </c>
+      <c r="C11" s="1">
+        <v>89</v>
+      </c>
+      <c r="D11" s="1">
+        <v>71</v>
+      </c>
+      <c r="E11" s="1">
+        <v>98</v>
+      </c>
+      <c r="F11" s="1">
+        <v>81</v>
+      </c>
+      <c r="G11" s="1">
+        <v>71</v>
+      </c>
+      <c r="H11" s="1">
+        <v>80</v>
+      </c>
+      <c r="I11" s="1">
+        <v>61</v>
+      </c>
+      <c r="J11" s="1">
+        <v>89</v>
+      </c>
+      <c r="K11" s="1">
+        <v>92</v>
+      </c>
+      <c r="L11" s="1">
+        <v>64</v>
+      </c>
+      <c r="M11" s="1">
         <v>85</v>
       </c>
-      <c r="C11" s="1">
-        <v>74</v>
-      </c>
-      <c r="D11" s="1">
-        <v>69</v>
-      </c>
-      <c r="E11" s="1">
-        <v>70</v>
-      </c>
-      <c r="F11" s="1">
-        <v>73</v>
-      </c>
-      <c r="G11" s="1">
-        <v>82</v>
-      </c>
-      <c r="H11" s="1">
-        <v>83</v>
-      </c>
-      <c r="I11" s="1">
-        <v>55</v>
-      </c>
-      <c r="J11" s="1">
-        <v>85</v>
-      </c>
-      <c r="K11" s="1">
-        <v>72</v>
-      </c>
-      <c r="L11" s="1">
-        <v>93</v>
-      </c>
-      <c r="M11" s="1">
-        <v>99</v>
-      </c>
       <c r="N11" s="1">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="O11" s="1">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="P11" s="1">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1011</v>
+        <v>111</v>
       </c>
       <c r="B12" s="1">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C12" s="1">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D12" s="1">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="E12" s="1">
+        <v>94</v>
+      </c>
+      <c r="F12" s="1">
+        <v>88</v>
+      </c>
+      <c r="G12" s="1">
+        <v>89</v>
+      </c>
+      <c r="H12" s="1">
         <v>73</v>
       </c>
-      <c r="F12" s="1">
-        <v>99</v>
-      </c>
-      <c r="G12" s="1">
-        <v>94</v>
-      </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
+        <v>89</v>
+      </c>
+      <c r="J12" s="1">
+        <v>75</v>
+      </c>
+      <c r="K12" s="1">
+        <v>83</v>
+      </c>
+      <c r="L12" s="1">
+        <v>62</v>
+      </c>
+      <c r="M12" s="1">
         <v>86</v>
       </c>
-      <c r="I12" s="1">
-        <v>60</v>
-      </c>
-      <c r="J12" s="1">
-        <v>85</v>
-      </c>
-      <c r="K12" s="1">
-        <v>92</v>
-      </c>
-      <c r="L12" s="1">
-        <v>81</v>
-      </c>
-      <c r="M12" s="1">
-        <v>99</v>
-      </c>
       <c r="N12" s="1">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="O12" s="1">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="P12" s="1">
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1012</v>
+        <v>112</v>
       </c>
       <c r="B13" s="1">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D13" s="1">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="E13" s="1">
+        <v>91</v>
+      </c>
+      <c r="F13" s="1">
+        <v>85</v>
+      </c>
+      <c r="G13" s="1">
         <v>90</v>
       </c>
-      <c r="F13" s="1">
-        <v>77</v>
-      </c>
-      <c r="G13" s="1">
-        <v>98</v>
-      </c>
       <c r="H13" s="1">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="I13" s="1">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="J13" s="1">
+        <v>65</v>
+      </c>
+      <c r="K13" s="1">
+        <v>93</v>
+      </c>
+      <c r="L13" s="1">
+        <v>73</v>
+      </c>
+      <c r="M13" s="1">
+        <v>82</v>
+      </c>
+      <c r="N13" s="1">
+        <v>81</v>
+      </c>
+      <c r="O13" s="1">
+        <v>94</v>
+      </c>
+      <c r="P13" s="1">
         <v>85</v>
-      </c>
-      <c r="K13" s="1">
-        <v>79</v>
-      </c>
-      <c r="L13" s="1">
-        <v>40</v>
-      </c>
-      <c r="M13" s="1">
-        <v>88</v>
-      </c>
-      <c r="N13" s="1">
-        <v>75</v>
-      </c>
-      <c r="O13" s="1">
-        <v>97</v>
-      </c>
-      <c r="P13" s="1">
-        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1013</v>
+        <v>113</v>
       </c>
       <c r="B14" s="1">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1">
+        <v>95</v>
+      </c>
+      <c r="D14" s="1">
+        <v>60</v>
+      </c>
+      <c r="E14" s="1">
+        <v>88</v>
+      </c>
+      <c r="F14" s="1">
+        <v>89</v>
+      </c>
+      <c r="G14" s="1">
+        <v>80</v>
+      </c>
+      <c r="H14" s="1">
         <v>81</v>
       </c>
-      <c r="D14" s="1">
-        <v>98</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="I14" s="1">
+        <v>62</v>
+      </c>
+      <c r="J14" s="1">
+        <v>56</v>
+      </c>
+      <c r="K14" s="1">
+        <v>97</v>
+      </c>
+      <c r="L14" s="1">
         <v>87</v>
       </c>
-      <c r="F14" s="1">
-        <v>79</v>
-      </c>
-      <c r="G14" s="1">
-        <v>65</v>
-      </c>
-      <c r="H14" s="1">
-        <v>93</v>
-      </c>
-      <c r="I14" s="1">
+      <c r="M14" s="1">
+        <v>83</v>
+      </c>
+      <c r="N14" s="1">
         <v>91</v>
       </c>
-      <c r="J14" s="1">
-        <v>81</v>
-      </c>
-      <c r="K14" s="1">
-        <v>88</v>
-      </c>
-      <c r="L14" s="1">
-        <v>42</v>
-      </c>
-      <c r="M14" s="1">
-        <v>100</v>
-      </c>
-      <c r="N14" s="1">
-        <v>83</v>
-      </c>
       <c r="O14" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P14" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1014</v>
+        <v>114</v>
       </c>
       <c r="B15" s="1">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C15" s="1">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D15" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15" s="1">
         <v>97</v>
       </c>
       <c r="F15" s="1">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G15" s="1">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="H15" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I15" s="1">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J15" s="1">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="K15" s="1">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="L15" s="1">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="M15" s="1">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="N15" s="1">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="O15" s="1">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="P15" s="1">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1015</v>
+        <v>115</v>
       </c>
       <c r="B16" s="1">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D16" s="1">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E16" s="1">
         <v>89</v>
       </c>
       <c r="F16" s="1">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="G16" s="1">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H16" s="1">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="I16" s="1">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="J16" s="1">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="K16" s="1">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L16" s="1">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="M16" s="1">
         <v>97</v>
       </c>
       <c r="N16" s="1">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="O16" s="1">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="P16" s="1">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1016</v>
+        <v>116</v>
       </c>
       <c r="B17" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C17" s="1">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="D17" s="1">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="E17" s="1">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F17" s="1">
+        <v>82</v>
+      </c>
+      <c r="G17" s="1">
+        <v>76</v>
+      </c>
+      <c r="H17" s="1">
+        <v>96</v>
+      </c>
+      <c r="I17" s="1">
+        <v>82</v>
+      </c>
+      <c r="J17" s="1">
+        <v>57</v>
+      </c>
+      <c r="K17" s="1">
+        <v>92</v>
+      </c>
+      <c r="L17" s="1">
         <v>87</v>
       </c>
-      <c r="G17" s="1">
-        <v>94</v>
-      </c>
-      <c r="H17" s="1">
-        <v>66</v>
-      </c>
-      <c r="I17" s="1">
-        <v>88</v>
-      </c>
-      <c r="J17" s="1">
-        <v>98</v>
-      </c>
-      <c r="K17" s="1">
+      <c r="M17" s="1">
+        <v>76</v>
+      </c>
+      <c r="N17" s="1">
         <v>68</v>
       </c>
-      <c r="L17" s="1">
-        <v>57</v>
-      </c>
-      <c r="M17" s="1">
-        <v>83</v>
-      </c>
-      <c r="N17" s="1">
-        <v>74</v>
-      </c>
       <c r="O17" s="1">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="P17" s="1">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1017</v>
+        <v>117</v>
       </c>
       <c r="B18" s="1">
+        <v>86</v>
+      </c>
+      <c r="C18" s="1">
+        <v>94</v>
+      </c>
+      <c r="D18" s="1">
         <v>85</v>
       </c>
-      <c r="C18" s="1">
-        <v>85</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
+        <v>100</v>
+      </c>
+      <c r="F18" s="1">
+        <v>78</v>
+      </c>
+      <c r="G18" s="1">
+        <v>73</v>
+      </c>
+      <c r="H18" s="1">
+        <v>91</v>
+      </c>
+      <c r="I18" s="1">
+        <v>66</v>
+      </c>
+      <c r="J18" s="1">
+        <v>90</v>
+      </c>
+      <c r="K18" s="1">
+        <v>83</v>
+      </c>
+      <c r="L18" s="1">
         <v>76</v>
       </c>
-      <c r="E18" s="1">
-        <v>94</v>
-      </c>
-      <c r="F18" s="1">
-        <v>89</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="M18" s="1">
+        <v>78</v>
+      </c>
+      <c r="N18" s="1">
+        <v>88</v>
+      </c>
+      <c r="O18" s="1">
         <v>71</v>
       </c>
-      <c r="H18" s="1">
-        <v>73</v>
-      </c>
-      <c r="I18" s="1">
-        <v>55</v>
-      </c>
-      <c r="J18" s="1">
-        <v>89</v>
-      </c>
-      <c r="K18" s="1">
-        <v>88</v>
-      </c>
-      <c r="L18" s="1">
-        <v>69</v>
-      </c>
-      <c r="M18" s="1">
-        <v>81</v>
-      </c>
-      <c r="N18" s="1">
-        <v>95</v>
-      </c>
-      <c r="O18" s="1">
-        <v>77</v>
-      </c>
       <c r="P18" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1018</v>
+        <v>118</v>
       </c>
       <c r="B19" s="1">
         <v>100</v>
       </c>
       <c r="C19" s="1">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D19" s="1">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="E19" s="1">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F19" s="1">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="G19" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H19" s="1">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="I19" s="1">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J19" s="1">
+        <v>92</v>
+      </c>
+      <c r="K19" s="1">
+        <v>97</v>
+      </c>
+      <c r="L19" s="1">
         <v>89</v>
       </c>
-      <c r="K19" s="1">
+      <c r="M19" s="1">
         <v>70</v>
       </c>
-      <c r="L19" s="1">
-        <v>67</v>
-      </c>
-      <c r="M19" s="1">
-        <v>91</v>
-      </c>
       <c r="N19" s="1">
+        <v>82</v>
+      </c>
+      <c r="O19" s="1">
+        <v>90</v>
+      </c>
+      <c r="P19" s="1">
         <v>83</v>
-      </c>
-      <c r="O19" s="1">
-        <v>93</v>
-      </c>
-      <c r="P19" s="1">
-        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1019</v>
+        <v>119</v>
       </c>
       <c r="B20" s="1">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1">
+        <v>97</v>
+      </c>
+      <c r="D20" s="1">
+        <v>84</v>
+      </c>
+      <c r="E20" s="1">
+        <v>87</v>
+      </c>
+      <c r="F20" s="1">
+        <v>77</v>
+      </c>
+      <c r="G20" s="1">
+        <v>83</v>
+      </c>
+      <c r="H20" s="1">
+        <v>76</v>
+      </c>
+      <c r="I20" s="1">
+        <v>74</v>
+      </c>
+      <c r="J20" s="1">
         <v>80</v>
       </c>
-      <c r="C20" s="1">
-        <v>81</v>
-      </c>
-      <c r="D20" s="1">
-        <v>92</v>
-      </c>
-      <c r="E20" s="1">
-        <v>99</v>
-      </c>
-      <c r="F20" s="1">
-        <v>71</v>
-      </c>
-      <c r="G20" s="1">
-        <v>66</v>
-      </c>
-      <c r="H20" s="1">
+      <c r="K20" s="1">
+        <v>82</v>
+      </c>
+      <c r="L20" s="1">
         <v>70</v>
       </c>
-      <c r="I20" s="1">
-        <v>55</v>
-      </c>
-      <c r="J20" s="1">
-        <v>92</v>
-      </c>
-      <c r="K20" s="1">
-        <v>94</v>
-      </c>
-      <c r="L20" s="1">
-        <v>95</v>
-      </c>
       <c r="M20" s="1">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N20" s="1">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="O20" s="1">
         <v>78</v>
       </c>
       <c r="P20" s="1">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1020</v>
+        <v>120</v>
       </c>
       <c r="B21" s="1">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C21" s="1">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D21" s="1">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="E21" s="1">
+        <v>93</v>
+      </c>
+      <c r="F21" s="1">
+        <v>68</v>
+      </c>
+      <c r="G21" s="1">
+        <v>86</v>
+      </c>
+      <c r="H21" s="1">
+        <v>94</v>
+      </c>
+      <c r="I21" s="1">
+        <v>74</v>
+      </c>
+      <c r="J21" s="1">
+        <v>76</v>
+      </c>
+      <c r="K21" s="1">
+        <v>76</v>
+      </c>
+      <c r="L21" s="1">
+        <v>64</v>
+      </c>
+      <c r="M21" s="1">
+        <v>73</v>
+      </c>
+      <c r="N21" s="1">
+        <v>68</v>
+      </c>
+      <c r="O21" s="1">
         <v>83</v>
       </c>
-      <c r="F21" s="1">
-        <v>71</v>
-      </c>
-      <c r="G21" s="1">
-        <v>77</v>
-      </c>
-      <c r="H21" s="1">
-        <v>66</v>
-      </c>
-      <c r="I21" s="1">
-        <v>78</v>
-      </c>
-      <c r="J21" s="1">
-        <v>89</v>
-      </c>
-      <c r="K21" s="1">
-        <v>80</v>
-      </c>
-      <c r="L21" s="1">
-        <v>84</v>
-      </c>
-      <c r="M21" s="1">
-        <v>84</v>
-      </c>
-      <c r="N21" s="1">
-        <v>75</v>
-      </c>
-      <c r="O21" s="1">
-        <v>52</v>
-      </c>
       <c r="P21" s="1">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1021</v>
+        <v>121</v>
       </c>
       <c r="B22" s="1">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D22" s="1">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E22" s="1">
+        <v>94</v>
+      </c>
+      <c r="F22" s="1">
+        <v>69</v>
+      </c>
+      <c r="G22" s="1">
+        <v>88</v>
+      </c>
+      <c r="H22" s="1">
+        <v>75</v>
+      </c>
+      <c r="I22" s="1">
         <v>74</v>
       </c>
-      <c r="F22" s="1">
-        <v>90</v>
-      </c>
-      <c r="G22" s="1">
-        <v>86</v>
-      </c>
-      <c r="H22" s="1">
-        <v>70</v>
-      </c>
-      <c r="I22" s="1">
-        <v>93</v>
-      </c>
       <c r="J22" s="1">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="K22" s="1">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="L22" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M22" s="1">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="N22" s="1">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="O22" s="1">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="P22" s="1">
-        <v>52</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1022</v>
+        <v>122</v>
       </c>
       <c r="B23" s="1">
+        <v>95</v>
+      </c>
+      <c r="C23" s="1">
+        <v>96</v>
+      </c>
+      <c r="D23" s="1">
+        <v>98</v>
+      </c>
+      <c r="E23" s="1">
+        <v>85</v>
+      </c>
+      <c r="F23" s="1">
+        <v>90</v>
+      </c>
+      <c r="G23" s="1">
+        <v>74</v>
+      </c>
+      <c r="H23" s="1">
+        <v>77</v>
+      </c>
+      <c r="I23" s="1">
         <v>75</v>
       </c>
-      <c r="C23" s="1">
-        <v>94</v>
-      </c>
-      <c r="D23" s="1">
-        <v>93</v>
-      </c>
-      <c r="E23" s="1">
-        <v>95</v>
-      </c>
-      <c r="F23" s="1">
-        <v>78</v>
-      </c>
-      <c r="G23" s="1">
-        <v>61</v>
-      </c>
-      <c r="H23" s="1">
-        <v>76</v>
-      </c>
-      <c r="I23" s="1">
-        <v>55</v>
-      </c>
       <c r="J23" s="1">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="K23" s="1">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L23" s="1">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="M23" s="1">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="N23" s="1">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="O23" s="1">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="P23" s="1">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1023</v>
+        <v>123</v>
       </c>
       <c r="B24" s="1">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C24" s="1">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D24" s="1">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E24" s="1">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F24" s="1">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="G24" s="1">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H24" s="1">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I24" s="1">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="J24" s="1">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="K24" s="1">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="L24" s="1">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="M24" s="1">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="N24" s="1">
+        <v>79</v>
+      </c>
+      <c r="O24" s="1">
         <v>74</v>
       </c>
-      <c r="O24" s="1">
-        <v>75</v>
-      </c>
       <c r="P24" s="1">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1024</v>
+        <v>124</v>
       </c>
       <c r="B25" s="1">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="C25" s="1">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D25" s="1">
+        <v>86</v>
+      </c>
+      <c r="E25" s="1">
+        <v>99</v>
+      </c>
+      <c r="F25" s="1">
+        <v>87</v>
+      </c>
+      <c r="G25" s="1">
+        <v>89</v>
+      </c>
+      <c r="H25" s="1">
+        <v>92</v>
+      </c>
+      <c r="I25" s="1">
         <v>81</v>
       </c>
-      <c r="E25" s="1">
-        <v>77</v>
-      </c>
-      <c r="F25" s="1">
+      <c r="J25" s="1">
+        <v>54</v>
+      </c>
+      <c r="K25" s="1">
+        <v>76</v>
+      </c>
+      <c r="L25" s="1">
         <v>92</v>
       </c>
-      <c r="G25" s="1">
+      <c r="M25" s="1">
         <v>72</v>
       </c>
-      <c r="H25" s="1">
-        <v>78</v>
-      </c>
-      <c r="I25" s="1">
-        <v>88</v>
-      </c>
-      <c r="J25" s="1">
-        <v>90</v>
-      </c>
-      <c r="K25" s="1">
-        <v>79</v>
-      </c>
-      <c r="L25" s="1">
-        <v>54</v>
-      </c>
-      <c r="M25" s="1">
-        <v>97</v>
-      </c>
       <c r="N25" s="1">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="O25" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P25" s="1">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1025</v>
+        <v>125</v>
       </c>
       <c r="B26" s="1">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C26" s="1">
+        <v>91</v>
+      </c>
+      <c r="D26" s="1">
+        <v>77</v>
+      </c>
+      <c r="E26" s="1">
+        <v>94</v>
+      </c>
+      <c r="F26" s="1">
+        <v>63</v>
+      </c>
+      <c r="G26" s="1">
+        <v>78</v>
+      </c>
+      <c r="H26" s="1">
         <v>92</v>
       </c>
-      <c r="D26" s="1">
-        <v>70</v>
-      </c>
-      <c r="E26" s="1">
-        <v>71</v>
-      </c>
-      <c r="F26" s="1">
-        <v>94</v>
-      </c>
-      <c r="G26" s="1">
+      <c r="I26" s="1">
         <v>87</v>
       </c>
-      <c r="H26" s="1">
-        <v>84</v>
-      </c>
-      <c r="I26" s="1">
-        <v>92</v>
-      </c>
       <c r="J26" s="1">
+        <v>53</v>
+      </c>
+      <c r="K26" s="1">
+        <v>75</v>
+      </c>
+      <c r="L26" s="1">
+        <v>72</v>
+      </c>
+      <c r="M26" s="1">
+        <v>81</v>
+      </c>
+      <c r="N26" s="1">
+        <v>79</v>
+      </c>
+      <c r="O26" s="1">
+        <v>94</v>
+      </c>
+      <c r="P26" s="1">
         <v>93</v>
-      </c>
-      <c r="K26" s="1">
-        <v>70</v>
-      </c>
-      <c r="L26" s="1">
-        <v>99</v>
-      </c>
-      <c r="M26" s="1">
-        <v>87</v>
-      </c>
-      <c r="N26" s="1">
-        <v>74</v>
-      </c>
-      <c r="O26" s="1">
-        <v>60</v>
-      </c>
-      <c r="P26" s="1">
-        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1026</v>
+        <v>126</v>
       </c>
       <c r="B27" s="1">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C27" s="1">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D27" s="1">
         <v>93</v>
       </c>
       <c r="E27" s="1">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F27" s="1">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G27" s="1">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H27" s="1">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="I27" s="1">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J27" s="1">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K27" s="1">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L27" s="1">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="M27" s="1">
+        <v>96</v>
+      </c>
+      <c r="N27" s="1">
         <v>90</v>
       </c>
-      <c r="N27" s="1">
-        <v>74</v>
-      </c>
       <c r="O27" s="1">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="P27" s="1">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1027</v>
+        <v>127</v>
       </c>
       <c r="B28" s="1">
+        <v>64</v>
+      </c>
+      <c r="C28" s="1">
+        <v>75</v>
+      </c>
+      <c r="D28" s="1">
+        <v>91</v>
+      </c>
+      <c r="E28" s="1">
+        <v>83</v>
+      </c>
+      <c r="F28" s="1">
         <v>87</v>
       </c>
-      <c r="C28" s="1">
-        <v>95</v>
-      </c>
-      <c r="D28" s="1">
+      <c r="G28" s="1">
+        <v>71</v>
+      </c>
+      <c r="H28" s="1">
+        <v>94</v>
+      </c>
+      <c r="I28" s="1">
+        <v>64</v>
+      </c>
+      <c r="J28" s="1">
+        <v>64</v>
+      </c>
+      <c r="K28" s="1">
+        <v>91</v>
+      </c>
+      <c r="L28" s="1">
+        <v>98</v>
+      </c>
+      <c r="M28" s="1">
+        <v>96</v>
+      </c>
+      <c r="N28" s="1">
         <v>78</v>
       </c>
-      <c r="E28" s="1">
-        <v>99</v>
-      </c>
-      <c r="F28" s="1">
-        <v>92</v>
-      </c>
-      <c r="G28" s="1">
-        <v>90</v>
-      </c>
-      <c r="H28" s="1">
-        <v>84</v>
-      </c>
-      <c r="I28" s="1">
-        <v>79</v>
-      </c>
-      <c r="J28" s="1">
-        <v>97</v>
-      </c>
-      <c r="K28" s="1">
-        <v>67</v>
-      </c>
-      <c r="L28" s="1">
-        <v>92</v>
-      </c>
-      <c r="M28" s="1">
-        <v>88</v>
-      </c>
-      <c r="N28" s="1">
-        <v>85</v>
-      </c>
       <c r="O28" s="1">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="P28" s="1">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1028</v>
+        <v>128</v>
       </c>
       <c r="B29" s="1">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C29" s="1">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="D29" s="1">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E29" s="1">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F29" s="1">
         <v>80</v>
       </c>
       <c r="G29" s="1">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H29" s="1">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="I29" s="1">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="J29" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K29" s="1">
+        <v>83</v>
+      </c>
+      <c r="L29" s="1">
+        <v>90</v>
+      </c>
+      <c r="M29" s="1">
         <v>98</v>
       </c>
-      <c r="L29" s="1">
-        <v>79</v>
-      </c>
-      <c r="M29" s="1">
-        <v>88</v>
-      </c>
       <c r="N29" s="1">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="O29" s="1">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="P29" s="1">
-        <v>52</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1029</v>
+        <v>129</v>
       </c>
       <c r="B30" s="1">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C30" s="1">
+        <v>82</v>
+      </c>
+      <c r="D30" s="1">
+        <v>94</v>
+      </c>
+      <c r="E30" s="1">
+        <v>92</v>
+      </c>
+      <c r="F30" s="1">
+        <v>83</v>
+      </c>
+      <c r="G30" s="1">
+        <v>85</v>
+      </c>
+      <c r="H30" s="1">
+        <v>72</v>
+      </c>
+      <c r="I30" s="1">
+        <v>89</v>
+      </c>
+      <c r="J30" s="1">
+        <v>85</v>
+      </c>
+      <c r="K30" s="1">
+        <v>83</v>
+      </c>
+      <c r="L30" s="1">
+        <v>95</v>
+      </c>
+      <c r="M30" s="1">
         <v>78</v>
       </c>
-      <c r="D30" s="1">
-        <v>81</v>
-      </c>
-      <c r="E30" s="1">
-        <v>80</v>
-      </c>
-      <c r="F30" s="1">
-        <v>89</v>
-      </c>
-      <c r="G30" s="1">
-        <v>81</v>
-      </c>
-      <c r="H30" s="1">
-        <v>66</v>
-      </c>
-      <c r="I30" s="1">
-        <v>61</v>
-      </c>
-      <c r="J30" s="1">
-        <v>88</v>
-      </c>
-      <c r="K30" s="1">
-        <v>99</v>
-      </c>
-      <c r="L30" s="1">
-        <v>43</v>
-      </c>
-      <c r="M30" s="1">
-        <v>94</v>
-      </c>
       <c r="N30" s="1">
+        <v>72</v>
+      </c>
+      <c r="O30" s="1">
+        <v>72</v>
+      </c>
+      <c r="P30" s="1">
         <v>97</v>
-      </c>
-      <c r="O30" s="1">
-        <v>89</v>
-      </c>
-      <c r="P30" s="1">
-        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1030</v>
+        <v>130</v>
       </c>
       <c r="B31" s="1">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C31" s="1">
         <v>94</v>
       </c>
       <c r="D31" s="1">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E31" s="1">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="F31" s="1">
         <v>72</v>
       </c>
       <c r="G31" s="1">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H31" s="1">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I31" s="1">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J31" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K31" s="1">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L31" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M31" s="1">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="N31" s="1">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="O31" s="1">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="P31" s="1">
-        <v>72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1031</v>
+        <v>131</v>
       </c>
       <c r="B32" s="1">
+        <v>79</v>
+      </c>
+      <c r="C32" s="1">
+        <v>95</v>
+      </c>
+      <c r="D32" s="1">
+        <v>84</v>
+      </c>
+      <c r="E32" s="1">
+        <v>87</v>
+      </c>
+      <c r="F32" s="1">
+        <v>83</v>
+      </c>
+      <c r="G32" s="1">
+        <v>89</v>
+      </c>
+      <c r="H32" s="1">
+        <v>96</v>
+      </c>
+      <c r="I32" s="1">
         <v>88</v>
       </c>
-      <c r="C32" s="1">
-        <v>79</v>
-      </c>
-      <c r="D32" s="1">
-        <v>71</v>
-      </c>
-      <c r="E32" s="1">
-        <v>98</v>
-      </c>
-      <c r="F32" s="1">
-        <v>84</v>
-      </c>
-      <c r="G32" s="1">
-        <v>87</v>
-      </c>
-      <c r="H32" s="1">
-        <v>66</v>
-      </c>
-      <c r="I32" s="1">
-        <v>78</v>
-      </c>
       <c r="J32" s="1">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="K32" s="1">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="L32" s="1">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="M32" s="1">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="N32" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O32" s="1">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="P32" s="1">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1032</v>
+        <v>132</v>
       </c>
       <c r="B33" s="1">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C33" s="1">
+        <v>93</v>
+      </c>
+      <c r="D33" s="1">
+        <v>75</v>
+      </c>
+      <c r="E33" s="1">
+        <v>94</v>
+      </c>
+      <c r="F33" s="1">
+        <v>67</v>
+      </c>
+      <c r="G33" s="1">
+        <v>72</v>
+      </c>
+      <c r="H33" s="1">
         <v>99</v>
       </c>
-      <c r="D33" s="1">
-        <v>63</v>
-      </c>
-      <c r="E33" s="1">
+      <c r="I33" s="1">
+        <v>69</v>
+      </c>
+      <c r="J33" s="1">
+        <v>72</v>
+      </c>
+      <c r="K33" s="1">
         <v>80</v>
       </c>
-      <c r="F33" s="1">
-        <v>72</v>
-      </c>
-      <c r="G33" s="1">
-        <v>73</v>
-      </c>
-      <c r="H33" s="1">
-        <v>70</v>
-      </c>
-      <c r="I33" s="1">
-        <v>70</v>
-      </c>
-      <c r="J33" s="1">
-        <v>94</v>
-      </c>
-      <c r="K33" s="1">
-        <v>73</v>
-      </c>
       <c r="L33" s="1">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="M33" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N33" s="1">
+        <v>68</v>
+      </c>
+      <c r="O33" s="1">
         <v>89</v>
       </c>
-      <c r="O33" s="1">
-        <v>51</v>
-      </c>
       <c r="P33" s="1">
-        <v>66</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1033</v>
+        <v>133</v>
       </c>
       <c r="B34" s="1">
+        <v>99</v>
+      </c>
+      <c r="C34" s="1">
+        <v>75</v>
+      </c>
+      <c r="D34" s="1">
         <v>83</v>
       </c>
-      <c r="C34" s="1">
-        <v>81</v>
-      </c>
-      <c r="D34" s="1">
-        <v>94</v>
-      </c>
       <c r="E34" s="1">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F34" s="1">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="G34" s="1">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H34" s="1">
+        <v>73</v>
+      </c>
+      <c r="I34" s="1">
+        <v>88</v>
+      </c>
+      <c r="J34" s="1">
+        <v>55</v>
+      </c>
+      <c r="K34" s="1">
+        <v>96</v>
+      </c>
+      <c r="L34" s="1">
+        <v>88</v>
+      </c>
+      <c r="M34" s="1">
         <v>79</v>
       </c>
-      <c r="I34" s="1">
-        <v>68</v>
-      </c>
-      <c r="J34" s="1">
-        <v>92</v>
-      </c>
-      <c r="K34" s="1">
-        <v>62</v>
-      </c>
-      <c r="L34" s="1">
-        <v>79</v>
-      </c>
-      <c r="M34" s="1">
-        <v>86</v>
-      </c>
       <c r="N34" s="1">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O34" s="1">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P34" s="1">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1034</v>
+        <v>134</v>
       </c>
       <c r="B35" s="1">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C35" s="1">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="D35" s="1">
+        <v>85</v>
+      </c>
+      <c r="E35" s="1">
+        <v>94</v>
+      </c>
+      <c r="F35" s="1">
         <v>60</v>
       </c>
-      <c r="E35" s="1">
-        <v>87</v>
-      </c>
-      <c r="F35" s="1">
-        <v>98</v>
-      </c>
       <c r="G35" s="1">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="H35" s="1">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I35" s="1">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J35" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K35" s="1">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="L35" s="1">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="M35" s="1">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="N35" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O35" s="1">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P35" s="1">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1035</v>
+        <v>135</v>
       </c>
       <c r="B36" s="1">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C36" s="1">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D36" s="1">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E36" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F36" s="1">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="G36" s="1">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H36" s="1">
         <v>98</v>
       </c>
       <c r="I36" s="1">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J36" s="1">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K36" s="1">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L36" s="1">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="M36" s="1">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="N36" s="1">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="O36" s="1">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="P36" s="1">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1036</v>
+        <v>136</v>
       </c>
       <c r="B37" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C37" s="1">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D37" s="1">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E37" s="1">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F37" s="1">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G37" s="1">
         <v>75</v>
       </c>
       <c r="H37" s="1">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I37" s="1">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J37" s="1">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="K37" s="1">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L37" s="1">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="M37" s="1">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="N37" s="1">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="O37" s="1">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="P37" s="1">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/public/Dataset/Dataset US.xlsx
+++ b/public/Dataset/Dataset US.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\UNDIP\PKL\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PKL\Excel\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA7447B-497D-4FCE-A6F9-5A305B500624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F09F4A-2400-4696-B55E-A1AB147CC55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{7DB892E0-464B-4B00-9D0F-F52A699E8CE8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7DB892E0-464B-4B00-9D0F-F52A699E8CE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +97,18 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,17 +128,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{4975038A-CBC4-4B8B-AF3E-7BF22F78FCF1}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{82290C69-13DD-4A32-AD05-0BA86864E0DE}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -438,26 +453,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30033CE3-F2BE-4385-9354-DFF71185792E}">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A37"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,7 +522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -557,7 +572,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
@@ -607,7 +622,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
@@ -657,7 +672,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>104</v>
       </c>
@@ -707,7 +722,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>105</v>
       </c>
@@ -757,7 +772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>106</v>
       </c>
@@ -807,7 +822,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>107</v>
       </c>
@@ -857,7 +872,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>108</v>
       </c>
@@ -907,7 +922,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>109</v>
       </c>
@@ -957,7 +972,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>110</v>
       </c>
@@ -1007,7 +1022,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>111</v>
       </c>
@@ -1057,7 +1072,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>112</v>
       </c>
@@ -1107,7 +1122,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>113</v>
       </c>
@@ -1157,7 +1172,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>114</v>
       </c>
@@ -1207,7 +1222,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>115</v>
       </c>
@@ -1257,7 +1272,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>116</v>
       </c>
@@ -1307,7 +1322,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>117</v>
       </c>
@@ -1357,7 +1372,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>118</v>
       </c>
@@ -1407,7 +1422,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>119</v>
       </c>
@@ -1457,7 +1472,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>120</v>
       </c>
@@ -1507,7 +1522,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>121</v>
       </c>
@@ -1557,7 +1572,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>122</v>
       </c>
@@ -1607,7 +1622,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>123</v>
       </c>
@@ -1657,7 +1672,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>124</v>
       </c>
@@ -1707,7 +1722,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>125</v>
       </c>
@@ -1757,7 +1772,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>126</v>
       </c>
@@ -1807,7 +1822,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>127</v>
       </c>
@@ -1857,7 +1872,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>128</v>
       </c>
@@ -1907,7 +1922,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>129</v>
       </c>
@@ -1957,7 +1972,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>130</v>
       </c>
@@ -2007,7 +2022,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>131</v>
       </c>
@@ -2057,7 +2072,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>132</v>
       </c>
@@ -2107,7 +2122,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>133</v>
       </c>
@@ -2157,7 +2172,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>134</v>
       </c>
@@ -2207,7 +2222,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>135</v>
       </c>
@@ -2257,7 +2272,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>136</v>
       </c>
@@ -2305,6 +2320,1806 @@
       </c>
       <c r="P37" s="1">
         <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>201</v>
+      </c>
+      <c r="B38" s="2">
+        <v>65</v>
+      </c>
+      <c r="C38" s="2">
+        <v>89</v>
+      </c>
+      <c r="D38" s="2">
+        <v>73</v>
+      </c>
+      <c r="E38" s="2">
+        <v>83</v>
+      </c>
+      <c r="F38" s="2">
+        <v>87</v>
+      </c>
+      <c r="G38" s="2">
+        <v>72</v>
+      </c>
+      <c r="H38" s="2">
+        <v>71</v>
+      </c>
+      <c r="I38" s="2">
+        <v>74</v>
+      </c>
+      <c r="J38" s="2">
+        <v>50</v>
+      </c>
+      <c r="K38" s="2">
+        <v>73</v>
+      </c>
+      <c r="L38" s="2">
+        <v>78</v>
+      </c>
+      <c r="M38" s="2">
+        <v>88</v>
+      </c>
+      <c r="N38" s="2">
+        <v>90</v>
+      </c>
+      <c r="O38" s="2">
+        <v>72</v>
+      </c>
+      <c r="P38" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>202</v>
+      </c>
+      <c r="B39" s="2">
+        <v>91</v>
+      </c>
+      <c r="C39" s="2">
+        <v>88</v>
+      </c>
+      <c r="D39" s="2">
+        <v>87</v>
+      </c>
+      <c r="E39" s="2">
+        <v>75</v>
+      </c>
+      <c r="F39" s="2">
+        <v>84</v>
+      </c>
+      <c r="G39" s="2">
+        <v>74</v>
+      </c>
+      <c r="H39" s="2">
+        <v>83</v>
+      </c>
+      <c r="I39" s="2">
+        <v>100</v>
+      </c>
+      <c r="J39" s="2">
+        <v>56</v>
+      </c>
+      <c r="K39" s="2">
+        <v>85</v>
+      </c>
+      <c r="L39" s="2">
+        <v>85</v>
+      </c>
+      <c r="M39" s="2">
+        <v>73</v>
+      </c>
+      <c r="N39" s="2">
+        <v>73</v>
+      </c>
+      <c r="O39" s="2">
+        <v>90</v>
+      </c>
+      <c r="P39" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>203</v>
+      </c>
+      <c r="B40" s="2">
+        <v>63</v>
+      </c>
+      <c r="C40" s="2">
+        <v>89</v>
+      </c>
+      <c r="D40" s="2">
+        <v>81</v>
+      </c>
+      <c r="E40" s="2">
+        <v>78</v>
+      </c>
+      <c r="F40" s="2">
+        <v>87</v>
+      </c>
+      <c r="G40" s="2">
+        <v>67</v>
+      </c>
+      <c r="H40" s="2">
+        <v>84</v>
+      </c>
+      <c r="I40" s="2">
+        <v>90</v>
+      </c>
+      <c r="J40" s="2">
+        <v>64</v>
+      </c>
+      <c r="K40" s="2">
+        <v>66</v>
+      </c>
+      <c r="L40" s="2">
+        <v>77</v>
+      </c>
+      <c r="M40" s="2">
+        <v>77</v>
+      </c>
+      <c r="N40" s="2">
+        <v>92</v>
+      </c>
+      <c r="O40" s="2">
+        <v>84</v>
+      </c>
+      <c r="P40" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>204</v>
+      </c>
+      <c r="B41" s="2">
+        <v>84</v>
+      </c>
+      <c r="C41" s="2">
+        <v>79</v>
+      </c>
+      <c r="D41" s="2">
+        <v>59</v>
+      </c>
+      <c r="E41" s="2">
+        <v>72</v>
+      </c>
+      <c r="F41" s="2">
+        <v>85</v>
+      </c>
+      <c r="G41" s="2">
+        <v>80</v>
+      </c>
+      <c r="H41" s="2">
+        <v>91</v>
+      </c>
+      <c r="I41" s="2">
+        <v>91</v>
+      </c>
+      <c r="J41" s="2">
+        <v>59</v>
+      </c>
+      <c r="K41" s="2">
+        <v>81</v>
+      </c>
+      <c r="L41" s="2">
+        <v>76</v>
+      </c>
+      <c r="M41" s="2">
+        <v>99</v>
+      </c>
+      <c r="N41" s="2">
+        <v>82</v>
+      </c>
+      <c r="O41" s="2">
+        <v>87</v>
+      </c>
+      <c r="P41" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>205</v>
+      </c>
+      <c r="B42" s="2">
+        <v>80</v>
+      </c>
+      <c r="C42" s="2">
+        <v>81</v>
+      </c>
+      <c r="D42" s="2">
+        <v>67</v>
+      </c>
+      <c r="E42" s="2">
+        <v>73</v>
+      </c>
+      <c r="F42" s="2">
+        <v>81</v>
+      </c>
+      <c r="G42" s="2">
+        <v>72</v>
+      </c>
+      <c r="H42" s="2">
+        <v>85</v>
+      </c>
+      <c r="I42" s="2">
+        <v>82</v>
+      </c>
+      <c r="J42" s="2">
+        <v>54</v>
+      </c>
+      <c r="K42" s="2">
+        <v>77</v>
+      </c>
+      <c r="L42" s="2">
+        <v>77</v>
+      </c>
+      <c r="M42" s="2">
+        <v>86</v>
+      </c>
+      <c r="N42" s="2">
+        <v>73</v>
+      </c>
+      <c r="O42" s="2">
+        <v>72</v>
+      </c>
+      <c r="P42" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>206</v>
+      </c>
+      <c r="B43" s="2">
+        <v>63</v>
+      </c>
+      <c r="C43" s="2">
+        <v>96</v>
+      </c>
+      <c r="D43" s="2">
+        <v>89</v>
+      </c>
+      <c r="E43" s="2">
+        <v>80</v>
+      </c>
+      <c r="F43" s="2">
+        <v>87</v>
+      </c>
+      <c r="G43" s="2">
+        <v>88</v>
+      </c>
+      <c r="H43" s="2">
+        <v>79</v>
+      </c>
+      <c r="I43" s="2">
+        <v>78</v>
+      </c>
+      <c r="J43" s="2">
+        <v>54</v>
+      </c>
+      <c r="K43" s="2">
+        <v>65</v>
+      </c>
+      <c r="L43" s="2">
+        <v>78</v>
+      </c>
+      <c r="M43" s="2">
+        <v>85</v>
+      </c>
+      <c r="N43" s="2">
+        <v>90</v>
+      </c>
+      <c r="O43" s="2">
+        <v>86</v>
+      </c>
+      <c r="P43" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>207</v>
+      </c>
+      <c r="B44" s="2">
+        <v>96</v>
+      </c>
+      <c r="C44" s="2">
+        <v>87</v>
+      </c>
+      <c r="D44" s="2">
+        <v>77</v>
+      </c>
+      <c r="E44" s="2">
+        <v>79</v>
+      </c>
+      <c r="F44" s="2">
+        <v>85</v>
+      </c>
+      <c r="G44" s="2">
+        <v>74</v>
+      </c>
+      <c r="H44" s="2">
+        <v>76</v>
+      </c>
+      <c r="I44" s="2">
+        <v>100</v>
+      </c>
+      <c r="J44" s="2">
+        <v>57</v>
+      </c>
+      <c r="K44" s="2">
+        <v>86</v>
+      </c>
+      <c r="L44" s="2">
+        <v>83</v>
+      </c>
+      <c r="M44" s="2">
+        <v>94</v>
+      </c>
+      <c r="N44" s="2">
+        <v>77</v>
+      </c>
+      <c r="O44" s="2">
+        <v>91</v>
+      </c>
+      <c r="P44" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>208</v>
+      </c>
+      <c r="B45" s="2">
+        <v>70</v>
+      </c>
+      <c r="C45" s="2">
+        <v>78</v>
+      </c>
+      <c r="D45" s="2">
+        <v>57</v>
+      </c>
+      <c r="E45" s="2">
+        <v>95</v>
+      </c>
+      <c r="F45" s="2">
+        <v>88</v>
+      </c>
+      <c r="G45" s="2">
+        <v>72</v>
+      </c>
+      <c r="H45" s="2">
+        <v>90</v>
+      </c>
+      <c r="I45" s="2">
+        <v>73</v>
+      </c>
+      <c r="J45" s="2">
+        <v>41</v>
+      </c>
+      <c r="K45" s="2">
+        <v>84</v>
+      </c>
+      <c r="L45" s="2">
+        <v>75</v>
+      </c>
+      <c r="M45" s="2">
+        <v>96</v>
+      </c>
+      <c r="N45" s="2">
+        <v>83</v>
+      </c>
+      <c r="O45" s="2">
+        <v>84</v>
+      </c>
+      <c r="P45" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>209</v>
+      </c>
+      <c r="B46" s="2">
+        <v>72</v>
+      </c>
+      <c r="C46" s="2">
+        <v>76</v>
+      </c>
+      <c r="D46" s="2">
+        <v>62</v>
+      </c>
+      <c r="E46" s="2">
+        <v>80</v>
+      </c>
+      <c r="F46" s="2">
+        <v>88</v>
+      </c>
+      <c r="G46" s="2">
+        <v>89</v>
+      </c>
+      <c r="H46" s="2">
+        <v>92</v>
+      </c>
+      <c r="I46" s="2">
+        <v>71</v>
+      </c>
+      <c r="J46" s="2">
+        <v>54</v>
+      </c>
+      <c r="K46" s="2">
+        <v>70</v>
+      </c>
+      <c r="L46" s="2">
+        <v>82</v>
+      </c>
+      <c r="M46" s="2">
+        <v>84</v>
+      </c>
+      <c r="N46" s="2">
+        <v>88</v>
+      </c>
+      <c r="O46" s="2">
+        <v>86</v>
+      </c>
+      <c r="P46" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>210</v>
+      </c>
+      <c r="B47" s="2">
+        <v>84</v>
+      </c>
+      <c r="C47" s="2">
+        <v>93</v>
+      </c>
+      <c r="D47" s="2">
+        <v>50</v>
+      </c>
+      <c r="E47" s="2">
+        <v>62</v>
+      </c>
+      <c r="F47" s="2">
+        <v>80</v>
+      </c>
+      <c r="G47" s="2">
+        <v>57</v>
+      </c>
+      <c r="H47" s="2">
+        <v>75</v>
+      </c>
+      <c r="I47" s="2">
+        <v>94</v>
+      </c>
+      <c r="J47" s="2">
+        <v>76</v>
+      </c>
+      <c r="K47" s="2">
+        <v>82</v>
+      </c>
+      <c r="L47" s="2">
+        <v>76</v>
+      </c>
+      <c r="M47" s="2">
+        <v>78</v>
+      </c>
+      <c r="N47" s="2">
+        <v>72</v>
+      </c>
+      <c r="O47" s="2">
+        <v>86</v>
+      </c>
+      <c r="P47" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>211</v>
+      </c>
+      <c r="B48" s="2">
+        <v>98</v>
+      </c>
+      <c r="C48" s="2">
+        <v>79</v>
+      </c>
+      <c r="D48" s="2">
+        <v>65</v>
+      </c>
+      <c r="E48" s="2">
+        <v>61</v>
+      </c>
+      <c r="F48" s="2">
+        <v>84</v>
+      </c>
+      <c r="G48" s="2">
+        <v>74</v>
+      </c>
+      <c r="H48" s="2">
+        <v>70</v>
+      </c>
+      <c r="I48" s="2">
+        <v>96</v>
+      </c>
+      <c r="J48" s="2">
+        <v>78</v>
+      </c>
+      <c r="K48" s="2">
+        <v>65</v>
+      </c>
+      <c r="L48" s="2">
+        <v>81</v>
+      </c>
+      <c r="M48" s="2">
+        <v>78</v>
+      </c>
+      <c r="N48" s="2">
+        <v>77</v>
+      </c>
+      <c r="O48" s="2">
+        <v>83</v>
+      </c>
+      <c r="P48" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>212</v>
+      </c>
+      <c r="B49" s="2">
+        <v>72</v>
+      </c>
+      <c r="C49" s="2">
+        <v>98</v>
+      </c>
+      <c r="D49" s="2">
+        <v>89</v>
+      </c>
+      <c r="E49" s="2">
+        <v>79</v>
+      </c>
+      <c r="F49" s="2">
+        <v>86</v>
+      </c>
+      <c r="G49" s="2">
+        <v>92</v>
+      </c>
+      <c r="H49" s="2">
+        <v>83</v>
+      </c>
+      <c r="I49" s="2">
+        <v>96</v>
+      </c>
+      <c r="J49" s="2">
+        <v>61</v>
+      </c>
+      <c r="K49" s="2">
+        <v>76</v>
+      </c>
+      <c r="L49" s="2">
+        <v>75</v>
+      </c>
+      <c r="M49" s="2">
+        <v>72</v>
+      </c>
+      <c r="N49" s="2">
+        <v>81</v>
+      </c>
+      <c r="O49" s="2">
+        <v>79</v>
+      </c>
+      <c r="P49" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>213</v>
+      </c>
+      <c r="B50" s="2">
+        <v>78</v>
+      </c>
+      <c r="C50" s="2">
+        <v>75</v>
+      </c>
+      <c r="D50" s="2">
+        <v>86</v>
+      </c>
+      <c r="E50" s="2">
+        <v>83</v>
+      </c>
+      <c r="F50" s="2">
+        <v>86</v>
+      </c>
+      <c r="G50" s="2">
+        <v>88</v>
+      </c>
+      <c r="H50" s="2">
+        <v>82</v>
+      </c>
+      <c r="I50" s="2">
+        <v>87</v>
+      </c>
+      <c r="J50" s="2">
+        <v>79</v>
+      </c>
+      <c r="K50" s="2">
+        <v>78</v>
+      </c>
+      <c r="L50" s="2">
+        <v>74</v>
+      </c>
+      <c r="M50" s="2">
+        <v>93</v>
+      </c>
+      <c r="N50" s="2">
+        <v>89</v>
+      </c>
+      <c r="O50" s="2">
+        <v>85</v>
+      </c>
+      <c r="P50" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>214</v>
+      </c>
+      <c r="B51" s="2">
+        <v>82</v>
+      </c>
+      <c r="C51" s="2">
+        <v>95</v>
+      </c>
+      <c r="D51" s="2">
+        <v>76</v>
+      </c>
+      <c r="E51" s="2">
+        <v>76</v>
+      </c>
+      <c r="F51" s="2">
+        <v>80</v>
+      </c>
+      <c r="G51" s="2">
+        <v>71</v>
+      </c>
+      <c r="H51" s="2">
+        <v>81</v>
+      </c>
+      <c r="I51" s="2">
+        <v>83</v>
+      </c>
+      <c r="J51" s="2">
+        <v>56</v>
+      </c>
+      <c r="K51" s="2">
+        <v>82</v>
+      </c>
+      <c r="L51" s="2">
+        <v>77</v>
+      </c>
+      <c r="M51" s="2">
+        <v>89</v>
+      </c>
+      <c r="N51" s="2">
+        <v>83</v>
+      </c>
+      <c r="O51" s="2">
+        <v>85</v>
+      </c>
+      <c r="P51" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>215</v>
+      </c>
+      <c r="B52" s="2">
+        <v>96</v>
+      </c>
+      <c r="C52" s="2">
+        <v>98</v>
+      </c>
+      <c r="D52" s="2">
+        <v>64</v>
+      </c>
+      <c r="E52" s="2">
+        <v>80</v>
+      </c>
+      <c r="F52" s="2">
+        <v>84</v>
+      </c>
+      <c r="G52" s="2">
+        <v>80</v>
+      </c>
+      <c r="H52" s="2">
+        <v>93</v>
+      </c>
+      <c r="I52" s="2">
+        <v>99</v>
+      </c>
+      <c r="J52" s="2">
+        <v>69</v>
+      </c>
+      <c r="K52" s="2">
+        <v>72</v>
+      </c>
+      <c r="L52" s="2">
+        <v>74</v>
+      </c>
+      <c r="M52" s="2">
+        <v>95</v>
+      </c>
+      <c r="N52" s="2">
+        <v>91</v>
+      </c>
+      <c r="O52" s="2">
+        <v>83</v>
+      </c>
+      <c r="P52" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>216</v>
+      </c>
+      <c r="B53" s="2">
+        <v>67</v>
+      </c>
+      <c r="C53" s="2">
+        <v>95</v>
+      </c>
+      <c r="D53" s="2">
+        <v>70</v>
+      </c>
+      <c r="E53" s="2">
+        <v>62</v>
+      </c>
+      <c r="F53" s="2">
+        <v>80</v>
+      </c>
+      <c r="G53" s="2">
+        <v>71</v>
+      </c>
+      <c r="H53" s="2">
+        <v>70</v>
+      </c>
+      <c r="I53" s="2">
+        <v>70</v>
+      </c>
+      <c r="J53" s="2">
+        <v>51</v>
+      </c>
+      <c r="K53" s="2">
+        <v>71</v>
+      </c>
+      <c r="L53" s="2">
+        <v>75</v>
+      </c>
+      <c r="M53" s="2">
+        <v>90</v>
+      </c>
+      <c r="N53" s="2">
+        <v>91</v>
+      </c>
+      <c r="O53" s="2">
+        <v>84</v>
+      </c>
+      <c r="P53" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>217</v>
+      </c>
+      <c r="B54" s="2">
+        <v>91</v>
+      </c>
+      <c r="C54" s="2">
+        <v>99</v>
+      </c>
+      <c r="D54" s="2">
+        <v>80</v>
+      </c>
+      <c r="E54" s="2">
+        <v>93</v>
+      </c>
+      <c r="F54" s="2">
+        <v>83</v>
+      </c>
+      <c r="G54" s="2">
+        <v>66</v>
+      </c>
+      <c r="H54" s="2">
+        <v>71</v>
+      </c>
+      <c r="I54" s="2">
+        <v>73</v>
+      </c>
+      <c r="J54" s="2">
+        <v>62</v>
+      </c>
+      <c r="K54" s="2">
+        <v>82</v>
+      </c>
+      <c r="L54" s="2">
+        <v>78</v>
+      </c>
+      <c r="M54" s="2">
+        <v>85</v>
+      </c>
+      <c r="N54" s="2">
+        <v>78</v>
+      </c>
+      <c r="O54" s="2">
+        <v>85</v>
+      </c>
+      <c r="P54" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>218</v>
+      </c>
+      <c r="B55" s="2">
+        <v>72</v>
+      </c>
+      <c r="C55" s="2">
+        <v>85</v>
+      </c>
+      <c r="D55" s="2">
+        <v>52</v>
+      </c>
+      <c r="E55" s="2">
+        <v>82</v>
+      </c>
+      <c r="F55" s="2">
+        <v>89</v>
+      </c>
+      <c r="G55" s="2">
+        <v>93</v>
+      </c>
+      <c r="H55" s="2">
+        <v>89</v>
+      </c>
+      <c r="I55" s="2">
+        <v>91</v>
+      </c>
+      <c r="J55" s="2">
+        <v>77</v>
+      </c>
+      <c r="K55" s="2">
+        <v>80</v>
+      </c>
+      <c r="L55" s="2">
+        <v>79</v>
+      </c>
+      <c r="M55" s="2">
+        <v>74</v>
+      </c>
+      <c r="N55" s="2">
+        <v>82</v>
+      </c>
+      <c r="O55" s="2">
+        <v>91</v>
+      </c>
+      <c r="P55" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>219</v>
+      </c>
+      <c r="B56" s="2">
+        <v>94</v>
+      </c>
+      <c r="C56" s="2">
+        <v>73</v>
+      </c>
+      <c r="D56" s="2">
+        <v>75</v>
+      </c>
+      <c r="E56" s="2">
+        <v>76</v>
+      </c>
+      <c r="F56" s="2">
+        <v>88</v>
+      </c>
+      <c r="G56" s="2">
+        <v>64</v>
+      </c>
+      <c r="H56" s="2">
+        <v>93</v>
+      </c>
+      <c r="I56" s="2">
+        <v>71</v>
+      </c>
+      <c r="J56" s="2">
+        <v>78</v>
+      </c>
+      <c r="K56" s="2">
+        <v>76</v>
+      </c>
+      <c r="L56" s="2">
+        <v>87</v>
+      </c>
+      <c r="M56" s="2">
+        <v>81</v>
+      </c>
+      <c r="N56" s="2">
+        <v>84</v>
+      </c>
+      <c r="O56" s="2">
+        <v>81</v>
+      </c>
+      <c r="P56" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>220</v>
+      </c>
+      <c r="B57" s="2">
+        <v>62</v>
+      </c>
+      <c r="C57" s="2">
+        <v>95</v>
+      </c>
+      <c r="D57" s="2">
+        <v>79</v>
+      </c>
+      <c r="E57" s="2">
+        <v>71</v>
+      </c>
+      <c r="F57" s="2">
+        <v>90</v>
+      </c>
+      <c r="G57" s="2">
+        <v>58</v>
+      </c>
+      <c r="H57" s="2">
+        <v>92</v>
+      </c>
+      <c r="I57" s="2">
+        <v>83</v>
+      </c>
+      <c r="J57" s="2">
+        <v>41</v>
+      </c>
+      <c r="K57" s="2">
+        <v>71</v>
+      </c>
+      <c r="L57" s="2">
+        <v>84</v>
+      </c>
+      <c r="M57" s="2">
+        <v>91</v>
+      </c>
+      <c r="N57" s="2">
+        <v>83</v>
+      </c>
+      <c r="O57" s="2">
+        <v>74</v>
+      </c>
+      <c r="P57" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>221</v>
+      </c>
+      <c r="B58" s="2">
+        <v>91</v>
+      </c>
+      <c r="C58" s="2">
+        <v>94</v>
+      </c>
+      <c r="D58" s="2">
+        <v>90</v>
+      </c>
+      <c r="E58" s="2">
+        <v>88</v>
+      </c>
+      <c r="F58" s="2">
+        <v>87</v>
+      </c>
+      <c r="G58" s="2">
+        <v>83</v>
+      </c>
+      <c r="H58" s="2">
+        <v>93</v>
+      </c>
+      <c r="I58" s="2">
+        <v>86</v>
+      </c>
+      <c r="J58" s="2">
+        <v>43</v>
+      </c>
+      <c r="K58" s="2">
+        <v>76</v>
+      </c>
+      <c r="L58" s="2">
+        <v>76</v>
+      </c>
+      <c r="M58" s="2">
+        <v>97</v>
+      </c>
+      <c r="N58" s="2">
+        <v>78</v>
+      </c>
+      <c r="O58" s="2">
+        <v>87</v>
+      </c>
+      <c r="P58" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>222</v>
+      </c>
+      <c r="B59" s="2">
+        <v>69</v>
+      </c>
+      <c r="C59" s="2">
+        <v>96</v>
+      </c>
+      <c r="D59" s="2">
+        <v>56</v>
+      </c>
+      <c r="E59" s="2">
+        <v>61</v>
+      </c>
+      <c r="F59" s="2">
+        <v>84</v>
+      </c>
+      <c r="G59" s="2">
+        <v>79</v>
+      </c>
+      <c r="H59" s="2">
+        <v>80</v>
+      </c>
+      <c r="I59" s="2">
+        <v>83</v>
+      </c>
+      <c r="J59" s="2">
+        <v>73</v>
+      </c>
+      <c r="K59" s="2">
+        <v>69</v>
+      </c>
+      <c r="L59" s="2">
+        <v>75</v>
+      </c>
+      <c r="M59" s="2">
+        <v>78</v>
+      </c>
+      <c r="N59" s="2">
+        <v>82</v>
+      </c>
+      <c r="O59" s="2">
+        <v>74</v>
+      </c>
+      <c r="P59" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>223</v>
+      </c>
+      <c r="B60" s="2">
+        <v>73</v>
+      </c>
+      <c r="C60" s="2">
+        <v>99</v>
+      </c>
+      <c r="D60" s="2">
+        <v>57</v>
+      </c>
+      <c r="E60" s="2">
+        <v>62</v>
+      </c>
+      <c r="F60" s="2">
+        <v>87</v>
+      </c>
+      <c r="G60" s="2">
+        <v>73</v>
+      </c>
+      <c r="H60" s="2">
+        <v>72</v>
+      </c>
+      <c r="I60" s="2">
+        <v>71</v>
+      </c>
+      <c r="J60" s="2">
+        <v>40</v>
+      </c>
+      <c r="K60" s="2">
+        <v>90</v>
+      </c>
+      <c r="L60" s="2">
+        <v>83</v>
+      </c>
+      <c r="M60" s="2">
+        <v>83</v>
+      </c>
+      <c r="N60" s="2">
+        <v>84</v>
+      </c>
+      <c r="O60" s="2">
+        <v>88</v>
+      </c>
+      <c r="P60" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>224</v>
+      </c>
+      <c r="B61" s="2">
+        <v>64</v>
+      </c>
+      <c r="C61" s="2">
+        <v>79</v>
+      </c>
+      <c r="D61" s="2">
+        <v>72</v>
+      </c>
+      <c r="E61" s="2">
+        <v>81</v>
+      </c>
+      <c r="F61" s="2">
+        <v>86</v>
+      </c>
+      <c r="G61" s="2">
+        <v>72</v>
+      </c>
+      <c r="H61" s="2">
+        <v>75</v>
+      </c>
+      <c r="I61" s="2">
+        <v>97</v>
+      </c>
+      <c r="J61" s="2">
+        <v>63</v>
+      </c>
+      <c r="K61" s="2">
+        <v>88</v>
+      </c>
+      <c r="L61" s="2">
+        <v>74</v>
+      </c>
+      <c r="M61" s="2">
+        <v>81</v>
+      </c>
+      <c r="N61" s="2">
+        <v>80</v>
+      </c>
+      <c r="O61" s="2">
+        <v>72</v>
+      </c>
+      <c r="P61" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>225</v>
+      </c>
+      <c r="B62" s="2">
+        <v>93</v>
+      </c>
+      <c r="C62" s="2">
+        <v>71</v>
+      </c>
+      <c r="D62" s="2">
+        <v>68</v>
+      </c>
+      <c r="E62" s="2">
+        <v>85</v>
+      </c>
+      <c r="F62" s="2">
+        <v>87</v>
+      </c>
+      <c r="G62" s="2">
+        <v>60</v>
+      </c>
+      <c r="H62" s="2">
+        <v>88</v>
+      </c>
+      <c r="I62" s="2">
+        <v>85</v>
+      </c>
+      <c r="J62" s="2">
+        <v>56</v>
+      </c>
+      <c r="K62" s="2">
+        <v>65</v>
+      </c>
+      <c r="L62" s="2">
+        <v>83</v>
+      </c>
+      <c r="M62" s="2">
+        <v>90</v>
+      </c>
+      <c r="N62" s="2">
+        <v>86</v>
+      </c>
+      <c r="O62" s="2">
+        <v>88</v>
+      </c>
+      <c r="P62" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>226</v>
+      </c>
+      <c r="B63" s="2">
+        <v>60</v>
+      </c>
+      <c r="C63" s="2">
+        <v>73</v>
+      </c>
+      <c r="D63" s="2">
+        <v>50</v>
+      </c>
+      <c r="E63" s="2">
+        <v>77</v>
+      </c>
+      <c r="F63" s="2">
+        <v>88</v>
+      </c>
+      <c r="G63" s="2">
+        <v>77</v>
+      </c>
+      <c r="H63" s="2">
+        <v>85</v>
+      </c>
+      <c r="I63" s="2">
+        <v>70</v>
+      </c>
+      <c r="J63" s="2">
+        <v>64</v>
+      </c>
+      <c r="K63" s="2">
+        <v>68</v>
+      </c>
+      <c r="L63" s="2">
+        <v>79</v>
+      </c>
+      <c r="M63" s="2">
+        <v>81</v>
+      </c>
+      <c r="N63" s="2">
+        <v>74</v>
+      </c>
+      <c r="O63" s="2">
+        <v>88</v>
+      </c>
+      <c r="P63" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>227</v>
+      </c>
+      <c r="B64" s="2">
+        <v>86</v>
+      </c>
+      <c r="C64" s="2">
+        <v>73</v>
+      </c>
+      <c r="D64" s="2">
+        <v>63</v>
+      </c>
+      <c r="E64" s="2">
+        <v>95</v>
+      </c>
+      <c r="F64" s="2">
+        <v>84</v>
+      </c>
+      <c r="G64" s="2">
+        <v>59</v>
+      </c>
+      <c r="H64" s="2">
+        <v>84</v>
+      </c>
+      <c r="I64" s="2">
+        <v>93</v>
+      </c>
+      <c r="J64" s="2">
+        <v>69</v>
+      </c>
+      <c r="K64" s="2">
+        <v>74</v>
+      </c>
+      <c r="L64" s="2">
+        <v>86</v>
+      </c>
+      <c r="M64" s="2">
+        <v>76</v>
+      </c>
+      <c r="N64" s="2">
+        <v>91</v>
+      </c>
+      <c r="O64" s="2">
+        <v>90</v>
+      </c>
+      <c r="P64" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>228</v>
+      </c>
+      <c r="B65" s="2">
+        <v>95</v>
+      </c>
+      <c r="C65" s="2">
+        <v>71</v>
+      </c>
+      <c r="D65" s="2">
+        <v>59</v>
+      </c>
+      <c r="E65" s="2">
+        <v>78</v>
+      </c>
+      <c r="F65" s="2">
+        <v>88</v>
+      </c>
+      <c r="G65" s="2">
+        <v>85</v>
+      </c>
+      <c r="H65" s="2">
+        <v>81</v>
+      </c>
+      <c r="I65" s="2">
+        <v>72</v>
+      </c>
+      <c r="J65" s="2">
+        <v>73</v>
+      </c>
+      <c r="K65" s="2">
+        <v>72</v>
+      </c>
+      <c r="L65" s="2">
+        <v>86</v>
+      </c>
+      <c r="M65" s="2">
+        <v>84</v>
+      </c>
+      <c r="N65" s="2">
+        <v>84</v>
+      </c>
+      <c r="O65" s="2">
+        <v>87</v>
+      </c>
+      <c r="P65" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>229</v>
+      </c>
+      <c r="B66" s="2">
+        <v>79</v>
+      </c>
+      <c r="C66" s="2">
+        <v>100</v>
+      </c>
+      <c r="D66" s="2">
+        <v>56</v>
+      </c>
+      <c r="E66" s="2">
+        <v>63</v>
+      </c>
+      <c r="F66" s="2">
+        <v>90</v>
+      </c>
+      <c r="G66" s="2">
+        <v>75</v>
+      </c>
+      <c r="H66" s="2">
+        <v>86</v>
+      </c>
+      <c r="I66" s="2">
+        <v>94</v>
+      </c>
+      <c r="J66" s="2">
+        <v>77</v>
+      </c>
+      <c r="K66" s="2">
+        <v>65</v>
+      </c>
+      <c r="L66" s="2">
+        <v>82</v>
+      </c>
+      <c r="M66" s="2">
+        <v>87</v>
+      </c>
+      <c r="N66" s="2">
+        <v>74</v>
+      </c>
+      <c r="O66" s="2">
+        <v>73</v>
+      </c>
+      <c r="P66" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>230</v>
+      </c>
+      <c r="B67" s="2">
+        <v>75</v>
+      </c>
+      <c r="C67" s="2">
+        <v>71</v>
+      </c>
+      <c r="D67" s="2">
+        <v>76</v>
+      </c>
+      <c r="E67" s="2">
+        <v>66</v>
+      </c>
+      <c r="F67" s="2">
+        <v>81</v>
+      </c>
+      <c r="G67" s="2">
+        <v>74</v>
+      </c>
+      <c r="H67" s="2">
+        <v>74</v>
+      </c>
+      <c r="I67" s="2">
+        <v>75</v>
+      </c>
+      <c r="J67" s="2">
+        <v>46</v>
+      </c>
+      <c r="K67" s="2">
+        <v>85</v>
+      </c>
+      <c r="L67" s="2">
+        <v>88</v>
+      </c>
+      <c r="M67" s="2">
+        <v>96</v>
+      </c>
+      <c r="N67" s="2">
+        <v>81</v>
+      </c>
+      <c r="O67" s="2">
+        <v>90</v>
+      </c>
+      <c r="P67" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>231</v>
+      </c>
+      <c r="B68" s="2">
+        <v>81</v>
+      </c>
+      <c r="C68" s="2">
+        <v>77</v>
+      </c>
+      <c r="D68" s="2">
+        <v>87</v>
+      </c>
+      <c r="E68" s="2">
+        <v>85</v>
+      </c>
+      <c r="F68" s="2">
+        <v>89</v>
+      </c>
+      <c r="G68" s="2">
+        <v>93</v>
+      </c>
+      <c r="H68" s="2">
+        <v>77</v>
+      </c>
+      <c r="I68" s="2">
+        <v>97</v>
+      </c>
+      <c r="J68" s="2">
+        <v>51</v>
+      </c>
+      <c r="K68" s="2">
+        <v>86</v>
+      </c>
+      <c r="L68" s="2">
+        <v>74</v>
+      </c>
+      <c r="M68" s="2">
+        <v>95</v>
+      </c>
+      <c r="N68" s="2">
+        <v>75</v>
+      </c>
+      <c r="O68" s="2">
+        <v>75</v>
+      </c>
+      <c r="P68" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>232</v>
+      </c>
+      <c r="B69" s="2">
+        <v>90</v>
+      </c>
+      <c r="C69" s="2">
+        <v>93</v>
+      </c>
+      <c r="D69" s="2">
+        <v>62</v>
+      </c>
+      <c r="E69" s="2">
+        <v>90</v>
+      </c>
+      <c r="F69" s="2">
+        <v>84</v>
+      </c>
+      <c r="G69" s="2">
+        <v>66</v>
+      </c>
+      <c r="H69" s="2">
+        <v>84</v>
+      </c>
+      <c r="I69" s="2">
+        <v>86</v>
+      </c>
+      <c r="J69" s="2">
+        <v>80</v>
+      </c>
+      <c r="K69" s="2">
+        <v>87</v>
+      </c>
+      <c r="L69" s="2">
+        <v>86</v>
+      </c>
+      <c r="M69" s="2">
+        <v>84</v>
+      </c>
+      <c r="N69" s="2">
+        <v>73</v>
+      </c>
+      <c r="O69" s="2">
+        <v>82</v>
+      </c>
+      <c r="P69" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>233</v>
+      </c>
+      <c r="B70" s="2">
+        <v>77</v>
+      </c>
+      <c r="C70" s="2">
+        <v>90</v>
+      </c>
+      <c r="D70" s="2">
+        <v>84</v>
+      </c>
+      <c r="E70" s="2">
+        <v>84</v>
+      </c>
+      <c r="F70" s="2">
+        <v>80</v>
+      </c>
+      <c r="G70" s="2">
+        <v>69</v>
+      </c>
+      <c r="H70" s="2">
+        <v>78</v>
+      </c>
+      <c r="I70" s="2">
+        <v>78</v>
+      </c>
+      <c r="J70" s="2">
+        <v>48</v>
+      </c>
+      <c r="K70" s="2">
+        <v>87</v>
+      </c>
+      <c r="L70" s="2">
+        <v>82</v>
+      </c>
+      <c r="M70" s="2">
+        <v>86</v>
+      </c>
+      <c r="N70" s="2">
+        <v>80</v>
+      </c>
+      <c r="O70" s="2">
+        <v>91</v>
+      </c>
+      <c r="P70" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>234</v>
+      </c>
+      <c r="B71" s="2">
+        <v>63</v>
+      </c>
+      <c r="C71" s="2">
+        <v>90</v>
+      </c>
+      <c r="D71" s="2">
+        <v>79</v>
+      </c>
+      <c r="E71" s="2">
+        <v>76</v>
+      </c>
+      <c r="F71" s="2">
+        <v>88</v>
+      </c>
+      <c r="G71" s="2">
+        <v>85</v>
+      </c>
+      <c r="H71" s="2">
+        <v>91</v>
+      </c>
+      <c r="I71" s="2">
+        <v>76</v>
+      </c>
+      <c r="J71" s="2">
+        <v>48</v>
+      </c>
+      <c r="K71" s="2">
+        <v>82</v>
+      </c>
+      <c r="L71" s="2">
+        <v>86</v>
+      </c>
+      <c r="M71" s="2">
+        <v>94</v>
+      </c>
+      <c r="N71" s="2">
+        <v>92</v>
+      </c>
+      <c r="O71" s="2">
+        <v>84</v>
+      </c>
+      <c r="P71" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>235</v>
+      </c>
+      <c r="B72" s="2">
+        <v>75</v>
+      </c>
+      <c r="C72" s="2">
+        <v>70</v>
+      </c>
+      <c r="D72" s="2">
+        <v>50</v>
+      </c>
+      <c r="E72" s="2">
+        <v>70</v>
+      </c>
+      <c r="F72" s="2">
+        <v>82</v>
+      </c>
+      <c r="G72" s="2">
+        <v>65</v>
+      </c>
+      <c r="H72" s="2">
+        <v>76</v>
+      </c>
+      <c r="I72" s="2">
+        <v>77</v>
+      </c>
+      <c r="J72" s="2">
+        <v>48</v>
+      </c>
+      <c r="K72" s="2">
+        <v>71</v>
+      </c>
+      <c r="L72" s="2">
+        <v>88</v>
+      </c>
+      <c r="M72" s="2">
+        <v>79</v>
+      </c>
+      <c r="N72" s="2">
+        <v>80</v>
+      </c>
+      <c r="O72" s="2">
+        <v>80</v>
+      </c>
+      <c r="P72" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>236</v>
+      </c>
+      <c r="B73" s="2">
+        <v>88</v>
+      </c>
+      <c r="C73" s="2">
+        <v>83</v>
+      </c>
+      <c r="D73" s="2">
+        <v>86</v>
+      </c>
+      <c r="E73" s="2">
+        <v>90</v>
+      </c>
+      <c r="F73" s="2">
+        <v>89</v>
+      </c>
+      <c r="G73" s="2">
+        <v>90</v>
+      </c>
+      <c r="H73" s="2">
+        <v>70</v>
+      </c>
+      <c r="I73" s="2">
+        <v>83</v>
+      </c>
+      <c r="J73" s="2">
+        <v>71</v>
+      </c>
+      <c r="K73" s="2">
+        <v>88</v>
+      </c>
+      <c r="L73" s="2">
+        <v>79</v>
+      </c>
+      <c r="M73" s="2">
+        <v>98</v>
+      </c>
+      <c r="N73" s="2">
+        <v>91</v>
+      </c>
+      <c r="O73" s="2">
+        <v>90</v>
+      </c>
+      <c r="P73" s="2">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
